--- a/test_module/evol.xlsx
+++ b/test_module/evol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="561">
   <si>
     <t>EvolTime</t>
   </si>
@@ -28,445 +28,1585 @@
     <t>[0, 168.0]</t>
   </si>
   <si>
-    <t>[168.0, 775.9336456750211]</t>
-  </si>
-  <si>
-    <t>[775.9336456750211, 777.0216483154004]</t>
-  </si>
-  <si>
-    <t>[777.0216483154004, 4230.458574492737]</t>
-  </si>
-  <si>
-    <t>[4230.458574492737, 4230.691907826071]</t>
-  </si>
-  <si>
-    <t>[4230.691907826071, 4242.6771925770345]</t>
-  </si>
-  <si>
-    <t>[4242.6771925770345, 4242.910525910368]</t>
-  </si>
-  <si>
-    <t>[4242.910525910368, 4688.244480460129]</t>
-  </si>
-  <si>
-    <t>[4688.244480460129, 4688.477813793463]</t>
-  </si>
-  <si>
-    <t>[4688.477813793463, 6629.432782277601]</t>
-  </si>
-  <si>
-    <t>[6629.432782277601, 6629.666115610935]</t>
-  </si>
-  <si>
-    <t>[6629.666115610935, 8460.605613863887]</t>
-  </si>
-  <si>
-    <t>[8460.605613863887, 8628.605613863887]</t>
-  </si>
-  <si>
-    <t>[8628.605613863887, 9332.840352073714]</t>
-  </si>
-  <si>
-    <t>[9332.840352073714, 9333.073685407047]</t>
-  </si>
-  <si>
-    <t>[9333.073685407047, 10681.097696303807]</t>
-  </si>
-  <si>
-    <t>[10681.097696303807, 10681.33102963714]</t>
-  </si>
-  <si>
-    <t>[10681.33102963714, 16833.557187699924]</t>
-  </si>
-  <si>
-    <t>[16833.557187699924, 16833.790521033257]</t>
-  </si>
-  <si>
-    <t>[16833.790521033257, 17853.854898839527]</t>
-  </si>
-  <si>
-    <t>[17853.854898839527, 17854.08823217286]</t>
-  </si>
-  <si>
-    <t>[17854.08823217286, 18861.496596726338]</t>
-  </si>
-  <si>
-    <t>[18861.496596726338, 18861.72993005967]</t>
-  </si>
-  <si>
-    <t>[18861.72993005967, 19529.452923765504]</t>
-  </si>
-  <si>
-    <t>[19529.452923765504, 19529.686257098838]</t>
-  </si>
-  <si>
-    <t>[19529.686257098838, 21333.490391640884]</t>
-  </si>
-  <si>
-    <t>[21333.490391640884, 21333.723724974217]</t>
-  </si>
-  <si>
-    <t>[21333.723724974217, 21580.96928743888]</t>
-  </si>
-  <si>
-    <t>[21580.96928743888, 21581.202620772212]</t>
-  </si>
-  <si>
-    <t>[21581.202620772212, 26029.050295021185]</t>
-  </si>
-  <si>
-    <t>[26029.050295021185, 26031.36898443504]</t>
-  </si>
-  <si>
-    <t>[26031.36898443504, 26822.828975629152]</t>
-  </si>
-  <si>
-    <t>[26822.828975629152, 26826.89036814738]</t>
-  </si>
-  <si>
-    <t>[26826.89036814738, 32122.38182353591]</t>
-  </si>
-  <si>
-    <t>[32122.38182353591, 32122.61515686924]</t>
-  </si>
-  <si>
-    <t>[32122.61515686924, 32816.37424786095]</t>
-  </si>
-  <si>
-    <t>[32816.37424786095, 32816.60758119428]</t>
-  </si>
-  <si>
-    <t>[32816.60758119428, 35118.873975160386]</t>
-  </si>
-  <si>
-    <t>[35118.873975160386, 35286.873975160386]</t>
-  </si>
-  <si>
-    <t>[35286.873975160386, 38194.04531924677]</t>
-  </si>
-  <si>
-    <t>[38194.04531924677, 38194.2786525801]</t>
-  </si>
-  <si>
-    <t>[38194.2786525801, 45390.12935646147]</t>
-  </si>
-  <si>
-    <t>[45390.12935646147, 45390.3626897948]</t>
-  </si>
-  <si>
-    <t>[45390.3626897948, 55675.937140377544]</t>
-  </si>
-  <si>
-    <t>[55675.937140377544, 55676.170473710874]</t>
-  </si>
-  <si>
-    <t>[55676.170473710874, 58118.357271100766]</t>
-  </si>
-  <si>
-    <t>[58118.357271100766, 58125.99121251117]</t>
-  </si>
-  <si>
-    <t>[58125.99121251117, 62073.89255561323]</t>
-  </si>
-  <si>
-    <t>[62073.89255561323, 62074.12588894657]</t>
-  </si>
-  <si>
-    <t>[62074.12588894657, 63877.794890685196]</t>
-  </si>
-  <si>
-    <t>[63877.794890685196, 63878.02822401853]</t>
-  </si>
-  <si>
-    <t>[63878.02822401853, 66363.08739510238]</t>
-  </si>
-  <si>
-    <t>[66363.08739510238, 66363.32072843572]</t>
-  </si>
-  <si>
-    <t>[66363.32072843572, 72577.1403271595]</t>
-  </si>
-  <si>
-    <t>[72577.1403271595, 72745.1403271595]</t>
-  </si>
-  <si>
-    <t>[72745.1403271595, 78895.96532817034]</t>
-  </si>
-  <si>
-    <t>[78895.96532817034, 78896.19866150367]</t>
-  </si>
-  <si>
-    <t>[78896.19866150367, 81874.31395777175]</t>
-  </si>
-  <si>
-    <t>[81874.31395777175, 81874.54729110509]</t>
-  </si>
-  <si>
-    <t>[81874.54729110509, 82045.23267869363]</t>
-  </si>
-  <si>
-    <t>[82045.23267869363, 82046.1287914889]</t>
-  </si>
-  <si>
-    <t>[82046.1287914889, 83945.57399460523]</t>
-  </si>
-  <si>
-    <t>[83945.57399460523, 83946.4787847581]</t>
-  </si>
-  <si>
-    <t>[83946.4787847581, 90060.16595112534]</t>
-  </si>
-  <si>
-    <t>[90060.16595112534, 90060.39928445868]</t>
-  </si>
-  <si>
-    <t>[90060.39928445868, 99270.64618645966]</t>
-  </si>
-  <si>
-    <t>[99270.64618645966, 99270.879519793]</t>
-  </si>
-  <si>
-    <t>[99270.879519793, 100438.02825005705]</t>
-  </si>
-  <si>
-    <t>[100438.02825005705, 100438.26158339038]</t>
-  </si>
-  <si>
-    <t>[100438.26158339038, 104885.96931261102]</t>
-  </si>
-  <si>
-    <t>[104885.96931261102, 104886.20264594436]</t>
-  </si>
-  <si>
-    <t>[104886.20264594436, 105537.96497958218]</t>
-  </si>
-  <si>
-    <t>[105537.96497958218, 105538.19831291551]</t>
-  </si>
-  <si>
-    <t>[105538.19831291551, 110948.84610406519]</t>
-  </si>
-  <si>
-    <t>[110948.84610406519, 110949.07943739853]</t>
-  </si>
-  <si>
-    <t>[110949.07943739853, 119133.93628259812]</t>
-  </si>
-  <si>
-    <t>[119133.93628259812, 119134.16961593146]</t>
-  </si>
-  <si>
-    <t>[119134.16961593146, 120182.25113837255]</t>
-  </si>
-  <si>
-    <t>[120182.25113837255, 120182.48447170589]</t>
-  </si>
-  <si>
-    <t>[120182.48447170589, 123746.65976446753]</t>
-  </si>
-  <si>
-    <t>[123746.65976446753, 123746.89309780087]</t>
-  </si>
-  <si>
-    <t>[123746.89309780087, 128407.08552934646]</t>
-  </si>
-  <si>
-    <t>[128407.08552934646, 128407.3188626798]</t>
-  </si>
-  <si>
-    <t>[128407.3188626798, 128509.21099434095]</t>
-  </si>
-  <si>
-    <t>[128509.21099434095, 128509.44432767428]</t>
-  </si>
-  <si>
-    <t>[128509.44432767428, 128511.70123708638]</t>
-  </si>
-  <si>
-    <t>[128511.70123708638, 128512.26816139111]</t>
-  </si>
-  <si>
-    <t>[128512.26816139111, 148059.24535226027]</t>
-  </si>
-  <si>
-    <t>[148059.24535226027, 148064.04833923685]</t>
-  </si>
-  <si>
-    <t>[148064.04833923685, 152135.6942659926]</t>
-  </si>
-  <si>
-    <t>[152135.6942659926, 152141.58028151238]</t>
-  </si>
-  <si>
-    <t>[152141.58028151238, 160353.26612212037]</t>
-  </si>
-  <si>
-    <t>[160353.26612212037, 160353.4994554537]</t>
-  </si>
-  <si>
-    <t>[160353.4994554537, 161087.5744529769]</t>
-  </si>
-  <si>
-    <t>[161087.5744529769, 161087.80778631024]</t>
-  </si>
-  <si>
-    <t>[161087.80778631024, 169285.12042379202]</t>
-  </si>
-  <si>
-    <t>[169285.12042379202, 169285.35375712535]</t>
-  </si>
-  <si>
-    <t>[169285.35375712535, 171980.27774360168]</t>
-  </si>
-  <si>
-    <t>[171980.27774360168, 171980.511076935]</t>
-  </si>
-  <si>
-    <t>[171980.511076935, 198395.1981061992]</t>
-  </si>
-  <si>
-    <t>[198395.1981061992, 198395.43143953255]</t>
-  </si>
-  <si>
-    <t>[198395.43143953255, 211523.93674097015]</t>
-  </si>
-  <si>
-    <t>[211523.93674097015, 211524.1700743035]</t>
-  </si>
-  <si>
-    <t>[211524.1700743035, 222673.83141910445]</t>
-  </si>
-  <si>
-    <t>[222673.83141910445, 222675.36967162]</t>
-  </si>
-  <si>
-    <t>[222675.36967162, 255642.1204687463]</t>
-  </si>
-  <si>
-    <t>[255642.1204687463, 255643.80926139446]</t>
-  </si>
-  <si>
-    <t>[255643.80926139446, 300398.5734351564]</t>
-  </si>
-  <si>
-    <t>[300398.5734351564, 300398.8067684897]</t>
-  </si>
-  <si>
-    <t>[300398.8067684897, 312117.90897536086]</t>
-  </si>
-  <si>
-    <t>[312117.90897536086, 312118.60942173307]</t>
-  </si>
-  <si>
-    <t>[312118.60942173307, 326644.2688431169]</t>
-  </si>
-  <si>
-    <t>[326644.2688431169, 326644.5021764502]</t>
-  </si>
-  <si>
-    <t>[326644.5021764502, 351747.25617222104]</t>
-  </si>
-  <si>
-    <t>[351747.25617222104, 351747.4895055544]</t>
-  </si>
-  <si>
-    <t>[351747.4895055544, 353672.0904822569]</t>
-  </si>
-  <si>
-    <t>[353672.0904822569, 353672.32381559024]</t>
-  </si>
-  <si>
-    <t>[353672.32381559024, 376689.1626419142]</t>
-  </si>
-  <si>
-    <t>[376689.1626419142, 376689.39597524755]</t>
-  </si>
-  <si>
-    <t>[376689.39597524755, 428309.37058377935]</t>
-  </si>
-  <si>
-    <t>[428309.37058377935, 428309.6039171127]</t>
-  </si>
-  <si>
-    <t>[428309.6039171127, 439374.06945089804]</t>
-  </si>
-  <si>
-    <t>[439374.06945089804, 439376.5972022174]</t>
-  </si>
-  <si>
-    <t>[439376.5972022174, 446986.70376168785]</t>
-  </si>
-  <si>
-    <t>[446986.70376168785, 446986.9370950212]</t>
-  </si>
-  <si>
-    <t>[446986.9370950212, 463075.91864653555]</t>
-  </si>
-  <si>
-    <t>[463075.91864653555, 463243.91864653555]</t>
-  </si>
-  <si>
-    <t>[463243.91864653555, 504999.1023760951]</t>
-  </si>
-  <si>
-    <t>[504999.1023760951, 504999.3357094284]</t>
-  </si>
-  <si>
-    <t>[504999.3357094284, 512282.2269202267]</t>
-  </si>
-  <si>
-    <t>[512282.2269202267, 512282.46025356004]</t>
-  </si>
-  <si>
-    <t>[512282.46025356004, 519853.8831639834]</t>
-  </si>
-  <si>
-    <t>[519853.8831639834, 519854.11649731675]</t>
-  </si>
-  <si>
-    <t>[519854.11649731675, 567715.205762554]</t>
-  </si>
-  <si>
-    <t>[567715.205762554, 567715.4390958872]</t>
-  </si>
-  <si>
-    <t>[567715.4390958872, 596115.461721228]</t>
-  </si>
-  <si>
-    <t>[596115.461721228, 596115.6950545612]</t>
-  </si>
-  <si>
-    <t>[596115.6950545612, 670146.0332204467]</t>
-  </si>
-  <si>
-    <t>[670146.0332204467, 670146.26655378]</t>
-  </si>
-  <si>
-    <t>[670146.26655378, 676520.7335633317]</t>
-  </si>
-  <si>
-    <t>[676520.7335633317, 676520.9668966649]</t>
-  </si>
-  <si>
-    <t>[676520.9668966649, 725023.190099019]</t>
-  </si>
-  <si>
-    <t>[725023.190099019, 725023.4234323523]</t>
-  </si>
-  <si>
-    <t>[725023.4234323523, 753900.7961450133]</t>
-  </si>
-  <si>
-    <t>[753900.7961450133, 753901.0294783466]</t>
-  </si>
-  <si>
-    <t>[753901.0294783466, 811744.4947270313]</t>
-  </si>
-  <si>
-    <t>[811744.4947270313, 811744.7280603646]</t>
-  </si>
-  <si>
-    <t>[811744.7280603646, 872209.0305159541]</t>
+    <t>[168.0, 1745.4447297813838]</t>
+  </si>
+  <si>
+    <t>[1745.4447297813838, 1745.678063114717]</t>
+  </si>
+  <si>
+    <t>[1745.678063114717, 1976.1030292547741]</t>
+  </si>
+  <si>
+    <t>[1976.1030292547741, 1976.3363625881072]</t>
+  </si>
+  <si>
+    <t>[1976.3363625881072, 3254.1260502871555]</t>
+  </si>
+  <si>
+    <t>[3254.1260502871555, 3254.359383620489]</t>
+  </si>
+  <si>
+    <t>[3254.359383620489, 3749.588314698696]</t>
+  </si>
+  <si>
+    <t>[3749.588314698696, 3749.8216480320298]</t>
+  </si>
+  <si>
+    <t>[3749.8216480320298, 7745.8038003790225]</t>
+  </si>
+  <si>
+    <t>[7745.8038003790225, 7787.984175115202]</t>
+  </si>
+  <si>
+    <t>[7787.984175115202, 7789.55766630343]</t>
+  </si>
+  <si>
+    <t>[7789.55766630343, 7913.8038003790225]</t>
+  </si>
+  <si>
+    <t>[7913.8038003790225, 12730.723169263523]</t>
+  </si>
+  <si>
+    <t>[12730.723169263523, 12730.956502596857]</t>
+  </si>
+  <si>
+    <t>[12730.956502596857, 13632.773431921665]</t>
+  </si>
+  <si>
+    <t>[13632.773431921665, 13633.006765254999]</t>
+  </si>
+  <si>
+    <t>[13633.006765254999, 15790.747133314422]</t>
+  </si>
+  <si>
+    <t>[15790.747133314422, 15790.980466647756]</t>
+  </si>
+  <si>
+    <t>[15790.980466647756, 16485.113843563173]</t>
+  </si>
+  <si>
+    <t>[16485.113843563173, 16545.744235337344]</t>
+  </si>
+  <si>
+    <t>[16545.744235337344, 16545.977568670678]</t>
+  </si>
+  <si>
+    <t>[16545.977568670678, 16653.113843563173]</t>
+  </si>
+  <si>
+    <t>[16653.113843563173, 18312.118740388283]</t>
+  </si>
+  <si>
+    <t>[18312.118740388283, 18312.352073721617]</t>
+  </si>
+  <si>
+    <t>[18312.352073721617, 18895.661376461667]</t>
+  </si>
+  <si>
+    <t>[18895.661376461667, 18895.894709795]</t>
+  </si>
+  <si>
+    <t>[18895.894709795, 20284.418793711964]</t>
+  </si>
+  <si>
+    <t>[20284.418793711964, 20284.652127045298]</t>
+  </si>
+  <si>
+    <t>[20284.652127045298, 25307.42986671464]</t>
+  </si>
+  <si>
+    <t>[25307.42986671464, 25307.663200047973]</t>
+  </si>
+  <si>
+    <t>[25307.663200047973, 30485.472635644433]</t>
+  </si>
+  <si>
+    <t>[30485.472635644433, 30485.705968977767]</t>
+  </si>
+  <si>
+    <t>[30485.705968977767, 36684.257309370325]</t>
+  </si>
+  <si>
+    <t>[36684.257309370325, 36684.490642703655]</t>
+  </si>
+  <si>
+    <t>[36684.490642703655, 39304.720957977945]</t>
+  </si>
+  <si>
+    <t>[39304.720957977945, 39304.954291311275]</t>
+  </si>
+  <si>
+    <t>[39304.954291311275, 39586.066343197395]</t>
+  </si>
+  <si>
+    <t>[39586.066343197395, 39586.299676530725]</t>
+  </si>
+  <si>
+    <t>[39586.299676530725, 41088.84314597727]</t>
+  </si>
+  <si>
+    <t>[41088.84314597727, 41089.0764793106]</t>
+  </si>
+  <si>
+    <t>[41089.0764793106, 43144.92931182344]</t>
+  </si>
+  <si>
+    <t>[43144.92931182344, 43145.16264515677]</t>
+  </si>
+  <si>
+    <t>[43145.16264515677, 43754.67251830305]</t>
+  </si>
+  <si>
+    <t>[43754.67251830305, 43754.90585163638]</t>
+  </si>
+  <si>
+    <t>[43754.90585163638, 46086.76113150356]</t>
+  </si>
+  <si>
+    <t>[46086.76113150356, 46086.99446483689]</t>
+  </si>
+  <si>
+    <t>[46086.99446483689, 47925.923835552814]</t>
+  </si>
+  <si>
+    <t>[47925.923835552814, 47926.157168886144]</t>
+  </si>
+  <si>
+    <t>[47926.157168886144, 49189.710837739556]</t>
+  </si>
+  <si>
+    <t>[49189.710837739556, 49189.944171072886]</t>
+  </si>
+  <si>
+    <t>[49189.944171072886, 53770.890851204735]</t>
+  </si>
+  <si>
+    <t>[53770.890851204735, 53771.124184538065]</t>
+  </si>
+  <si>
+    <t>[53771.124184538065, 54835.67376159849]</t>
+  </si>
+  <si>
+    <t>[54835.67376159849, 54835.90709493182]</t>
+  </si>
+  <si>
+    <t>[54835.90709493182, 55150.164097360765]</t>
+  </si>
+  <si>
+    <t>[55150.164097360765, 55150.397430694095]</t>
+  </si>
+  <si>
+    <t>[55150.397430694095, 61424.91553588769]</t>
+  </si>
+  <si>
+    <t>[61424.91553588769, 61425.14886922102]</t>
+  </si>
+  <si>
+    <t>[61425.14886922102, 68285.43135130322]</t>
+  </si>
+  <si>
+    <t>[68285.43135130322, 68285.66468463656]</t>
+  </si>
+  <si>
+    <t>[68285.66468463656, 69987.47014089632]</t>
+  </si>
+  <si>
+    <t>[69987.47014089632, 69987.70347422965]</t>
+  </si>
+  <si>
+    <t>[69987.70347422965, 75455.60477203444]</t>
+  </si>
+  <si>
+    <t>[75455.60477203444, 75455.83810536777]</t>
+  </si>
+  <si>
+    <t>[75455.83810536777, 75506.86779695896]</t>
+  </si>
+  <si>
+    <t>[75506.86779695896, 75507.1011302923]</t>
+  </si>
+  <si>
+    <t>[75507.1011302923, 78150.38580892855]</t>
+  </si>
+  <si>
+    <t>[78150.38580892855, 78150.61914226189]</t>
+  </si>
+  <si>
+    <t>[78150.61914226189, 79130.36875044591]</t>
+  </si>
+  <si>
+    <t>[79130.36875044591, 79131.23895440657]</t>
+  </si>
+  <si>
+    <t>[79131.23895440657, 80601.63020831297]</t>
+  </si>
+  <si>
+    <t>[80601.63020831297, 80601.86354164631]</t>
+  </si>
+  <si>
+    <t>[80601.86354164631, 91808.2943058937]</t>
+  </si>
+  <si>
+    <t>[91808.2943058937, 91808.52763922703]</t>
+  </si>
+  <si>
+    <t>[91808.52763922703, 93797.97608335374]</t>
+  </si>
+  <si>
+    <t>[93797.97608335374, 93798.20941668708]</t>
+  </si>
+  <si>
+    <t>[93798.20941668708, 95541.54020108197]</t>
+  </si>
+  <si>
+    <t>[95541.54020108197, 95541.7735344153]</t>
+  </si>
+  <si>
+    <t>[95541.7735344153, 96534.5670173485]</t>
+  </si>
+  <si>
+    <t>[96534.5670173485, 96534.80035068183]</t>
+  </si>
+  <si>
+    <t>[96534.80035068183, 102601.37232023083]</t>
+  </si>
+  <si>
+    <t>[102601.37232023083, 102601.60565356417]</t>
+  </si>
+  <si>
+    <t>[102601.60565356417, 109504.6006254213]</t>
+  </si>
+  <si>
+    <t>[109504.6006254213, 109504.83395875464]</t>
+  </si>
+  <si>
+    <t>[109504.83395875464, 110965.17106980916]</t>
+  </si>
+  <si>
+    <t>[110965.17106980916, 110965.4044031425]</t>
+  </si>
+  <si>
+    <t>[110965.4044031425, 111431.20112881876]</t>
+  </si>
+  <si>
+    <t>[111431.20112881876, 111599.20112881876]</t>
+  </si>
+  <si>
+    <t>[111599.20112881876, 114093.42546396473]</t>
+  </si>
+  <si>
+    <t>[114093.42546396473, 114093.65879729806]</t>
+  </si>
+  <si>
+    <t>[114093.65879729806, 114284.21071596601]</t>
+  </si>
+  <si>
+    <t>[114284.21071596601, 114284.44404929935]</t>
+  </si>
+  <si>
+    <t>[114284.44404929935, 116325.87567565433]</t>
+  </si>
+  <si>
+    <t>[116325.87567565433, 116326.10900898767]</t>
+  </si>
+  <si>
+    <t>[116326.10900898767, 118345.33447114775]</t>
+  </si>
+  <si>
+    <t>[118345.33447114775, 118347.26389047544]</t>
+  </si>
+  <si>
+    <t>[118347.26389047544, 119294.67148388694]</t>
+  </si>
+  <si>
+    <t>[119294.67148388694, 119294.90481722027]</t>
+  </si>
+  <si>
+    <t>[119294.90481722027, 119656.99085478538]</t>
+  </si>
+  <si>
+    <t>[119656.99085478538, 119657.22418811872]</t>
+  </si>
+  <si>
+    <t>[119657.22418811872, 120814.63171299915]</t>
+  </si>
+  <si>
+    <t>[120814.63171299915, 120814.86504633249]</t>
+  </si>
+  <si>
+    <t>[120814.86504633249, 122464.57977731184]</t>
+  </si>
+  <si>
+    <t>[122464.57977731184, 122464.81311064518]</t>
+  </si>
+  <si>
+    <t>[122464.81311064518, 122607.4521927894]</t>
+  </si>
+  <si>
+    <t>[122607.4521927894, 122607.68552612273]</t>
+  </si>
+  <si>
+    <t>[122607.68552612273, 125337.13532570211]</t>
+  </si>
+  <si>
+    <t>[125337.13532570211, 125505.13532570211]</t>
+  </si>
+  <si>
+    <t>[125505.13532570211, 127622.16443444233]</t>
+  </si>
+  <si>
+    <t>[127622.16443444233, 127622.39776777566]</t>
+  </si>
+  <si>
+    <t>[127622.39776777566, 130757.97686110034]</t>
+  </si>
+  <si>
+    <t>[130757.97686110034, 130758.21019443368]</t>
+  </si>
+  <si>
+    <t>[130758.21019443368, 134454.77901074896]</t>
+  </si>
+  <si>
+    <t>[134454.77901074896, 134456.71439498413]</t>
+  </si>
+  <si>
+    <t>[134456.71439498413, 135193.94429844632]</t>
+  </si>
+  <si>
+    <t>[135193.94429844632, 135195.07050046884]</t>
+  </si>
+  <si>
+    <t>[135195.07050046884, 138738.79030772255]</t>
+  </si>
+  <si>
+    <t>[138738.79030772255, 138739.0236410559]</t>
+  </si>
+  <si>
+    <t>[138739.0236410559, 139235.75734957174]</t>
+  </si>
+  <si>
+    <t>[139235.75734957174, 139235.99068290507]</t>
+  </si>
+  <si>
+    <t>[139235.99068290507, 144420.1778262322]</t>
+  </si>
+  <si>
+    <t>[144420.1778262322, 144420.41115956553]</t>
+  </si>
+  <si>
+    <t>[144420.41115956553, 150570.7448213432]</t>
+  </si>
+  <si>
+    <t>[150570.7448213432, 150570.97815467653]</t>
+  </si>
+  <si>
+    <t>[150570.97815467653, 160078.38225598008]</t>
+  </si>
+  <si>
+    <t>[160078.38225598008, 160246.38225598008]</t>
+  </si>
+  <si>
+    <t>[160246.38225598008, 169051.90465532383]</t>
+  </si>
+  <si>
+    <t>[169051.90465532383, 169052.13798865717]</t>
+  </si>
+  <si>
+    <t>[169052.13798865717, 181061.98417247104]</t>
+  </si>
+  <si>
+    <t>[181061.98417247104, 181062.95377633048]</t>
+  </si>
+  <si>
+    <t>[181062.95377633048, 189848.54711826058]</t>
+  </si>
+  <si>
+    <t>[189848.54711826058, 189848.78045159392]</t>
+  </si>
+  <si>
+    <t>[189848.78045159392, 198621.37688464174]</t>
+  </si>
+  <si>
+    <t>[198621.37688464174, 198621.61021797507]</t>
+  </si>
+  <si>
+    <t>[198621.61021797507, 202004.89844622143]</t>
+  </si>
+  <si>
+    <t>[202004.89844622143, 202005.13177955477]</t>
+  </si>
+  <si>
+    <t>[202005.13177955477, 207610.56459330826]</t>
+  </si>
+  <si>
+    <t>[207610.56459330826, 207610.7979266416]</t>
+  </si>
+  <si>
+    <t>[207610.7979266416, 209280.4311288327]</t>
+  </si>
+  <si>
+    <t>[209280.4311288327, 209280.66446216602]</t>
+  </si>
+  <si>
+    <t>[209280.66446216602, 213937.02948030637]</t>
+  </si>
+  <si>
+    <t>[213937.02948030637, 213937.2628136397]</t>
+  </si>
+  <si>
+    <t>[213937.2628136397, 214509.33748976054]</t>
+  </si>
+  <si>
+    <t>[214509.33748976054, 214509.9943796405]</t>
+  </si>
+  <si>
+    <t>[214509.9943796405, 225934.85106036684]</t>
+  </si>
+  <si>
+    <t>[225934.85106036684, 225935.08439370018]</t>
+  </si>
+  <si>
+    <t>[225935.08439370018, 235636.18483761232]</t>
+  </si>
+  <si>
+    <t>[235636.18483761232, 235636.41817094566]</t>
+  </si>
+  <si>
+    <t>[235636.41817094566, 240214.0266951045]</t>
+  </si>
+  <si>
+    <t>[240214.0266951045, 240382.0266951045]</t>
+  </si>
+  <si>
+    <t>[240382.0266951045, 252207.53385312628]</t>
+  </si>
+  <si>
+    <t>[252207.53385312628, 252209.1943637769]</t>
+  </si>
+  <si>
+    <t>[252209.1943637769, 253838.37777298622]</t>
+  </si>
+  <si>
+    <t>[253838.37777298622, 253839.3999318328]</t>
+  </si>
+  <si>
+    <t>[253839.3999318328, 289155.70124272956]</t>
+  </si>
+  <si>
+    <t>[289155.70124272956, 289155.9345760629]</t>
+  </si>
+  <si>
+    <t>[289155.9345760629, 300718.67610946356]</t>
+  </si>
+  <si>
+    <t>[300718.67610946356, 300727.7797158238]</t>
+  </si>
+  <si>
+    <t>[300727.7797158238, 303286.88471417513]</t>
+  </si>
+  <si>
+    <t>[303286.88471417513, 303287.11804750847]</t>
+  </si>
+  <si>
+    <t>[303287.11804750847, 330072.6006067881]</t>
+  </si>
+  <si>
+    <t>[330072.6006067881, 330072.83394012146]</t>
+  </si>
+  <si>
+    <t>[330072.83394012146, 349424.24346879683]</t>
+  </si>
+  <si>
+    <t>[349424.24346879683, 349424.4768021302]</t>
+  </si>
+  <si>
+    <t>[349424.4768021302, 354601.939777153]</t>
+  </si>
+  <si>
+    <t>[354601.939777153, 354604.0678421686]</t>
+  </si>
+  <si>
+    <t>[354604.0678421686, 359674.22370454075]</t>
+  </si>
+  <si>
+    <t>[359674.22370454075, 359674.4570378741]</t>
+  </si>
+  <si>
+    <t>[359674.4570378741, 374022.94311355887]</t>
+  </si>
+  <si>
+    <t>[374022.94311355887, 374023.1764468922]</t>
+  </si>
+  <si>
+    <t>[374023.1764468922, 420897.16211960884]</t>
+  </si>
+  <si>
+    <t>[420897.16211960884, 420897.3954529422]</t>
+  </si>
+  <si>
+    <t>[420897.3954529422, 456249.08917556715]</t>
+  </si>
+  <si>
+    <t>[456249.08917556715, 456249.3225089005]</t>
+  </si>
+  <si>
+    <t>[456249.3225089005, 488862.7803273512]</t>
+  </si>
+  <si>
+    <t>[488862.7803273512, 488864.8994150673]</t>
+  </si>
+  <si>
+    <t>[488864.8994150673, 490546.99112498167]</t>
+  </si>
+  <si>
+    <t>[490546.99112498167, 490547.224458315]</t>
+  </si>
+  <si>
+    <t>[490547.224458315, 495372.6864624609]</t>
+  </si>
+  <si>
+    <t>[495372.6864624609, 495372.91979579424]</t>
+  </si>
+  <si>
+    <t>[495372.91979579424, 499549.79575510434]</t>
+  </si>
+  <si>
+    <t>[499549.79575510434, 499550.0290884377]</t>
+  </si>
+  <si>
+    <t>[499550.0290884377, 528429.2768128114]</t>
+  </si>
+  <si>
+    <t>[528429.2768128114, 528431.0422583934]</t>
+  </si>
+  <si>
+    <t>[528431.0422583934, 529713.1622337757]</t>
+  </si>
+  <si>
+    <t>[529713.1622337757, 529713.395567109]</t>
+  </si>
+  <si>
+    <t>[529713.395567109, 566355.2279422729]</t>
+  </si>
+  <si>
+    <t>[566355.2279422729, 566523.2279422729]</t>
+  </si>
+  <si>
+    <t>[566523.2279422729, 586696.1067052945]</t>
+  </si>
+  <si>
+    <t>[586696.1067052945, 586696.3400386277]</t>
+  </si>
+  <si>
+    <t>[586696.3400386277, 593022.2581890924]</t>
+  </si>
+  <si>
+    <t>[593022.2581890924, 593024.4907222604]</t>
+  </si>
+  <si>
+    <t>[593024.4907222604, 621026.1217169446]</t>
+  </si>
+  <si>
+    <t>[621026.1217169446, 621027.8424226701]</t>
+  </si>
+  <si>
+    <t>[621027.8424226701, 639651.0833739205]</t>
+  </si>
+  <si>
+    <t>[639651.0833739205, 639651.3167072538]</t>
+  </si>
+  <si>
+    <t>[639651.3167072538, 666688.611869156]</t>
+  </si>
+  <si>
+    <t>[666688.611869156, 666688.8452024893]</t>
+  </si>
+  <si>
+    <t>[666688.8452024893, 680881.6582802791]</t>
+  </si>
+  <si>
+    <t>[680881.6582802791, 680885.2762070231]</t>
+  </si>
+  <si>
+    <t>[680885.2762070231, 683708.0256382293]</t>
+  </si>
+  <si>
+    <t>[683708.0256382293, 683708.2589715626]</t>
+  </si>
+  <si>
+    <t>[683708.2589715626, 692747.0753771022]</t>
+  </si>
+  <si>
+    <t>[692747.0753771022, 692747.3087104355]</t>
+  </si>
+  <si>
+    <t>[692747.3087104355, 722407.0143900178]</t>
+  </si>
+  <si>
+    <t>[722407.0143900178, 722407.2477233511]</t>
+  </si>
+  <si>
+    <t>[722407.2477233511, 782251.4283647317]</t>
+  </si>
+  <si>
+    <t>[782251.4283647317, 782251.661698065]</t>
+  </si>
+  <si>
+    <t>[782251.661698065, 792782.6562637642]</t>
+  </si>
+  <si>
+    <t>[792782.6562637642, 792784.5481827453]</t>
+  </si>
+  <si>
+    <t>[792784.5481827453, 795727.4287237134]</t>
+  </si>
+  <si>
+    <t>[795727.4287237134, 795737.0908153498]</t>
+  </si>
+  <si>
+    <t>[795737.0908153498, 809056.782932139]</t>
+  </si>
+  <si>
+    <t>[809056.782932139, 809057.0162654723]</t>
+  </si>
+  <si>
+    <t>[809057.0162654723, 832584.3563838647]</t>
+  </si>
+  <si>
+    <t>[832584.3563838647, 832752.3563838647]</t>
+  </si>
+  <si>
+    <t>[832752.3563838647, 837013.5388093254]</t>
+  </si>
+  <si>
+    <t>[837013.5388093254, 837013.7721426587]</t>
+  </si>
+  <si>
+    <t>[837013.7721426587, 841289.8590305393]</t>
+  </si>
+  <si>
+    <t>[841289.8590305393, 841291.3689598389]</t>
+  </si>
+  <si>
+    <t>[841291.3689598389, 842937.4634557685]</t>
+  </si>
+  <si>
+    <t>[842937.4634557685, 842937.6967891018]</t>
+  </si>
+  <si>
+    <t>[842937.6967891018, 851368.9297380825]</t>
+  </si>
+  <si>
+    <t>[851368.9297380825, 851369.1630714157]</t>
+  </si>
+  <si>
+    <t>[851369.1630714157, 928235.5817252456]</t>
+  </si>
+  <si>
+    <t>[928235.5817252456, 928235.8150585789]</t>
+  </si>
+  <si>
+    <t>[928235.8150585789, 955571.1706619507]</t>
+  </si>
+  <si>
+    <t>[955571.1706619507, 955572.4181465283]</t>
+  </si>
+  <si>
+    <t>[955572.4181465283, 972115.2923295993]</t>
+  </si>
+  <si>
+    <t>[972115.2923295993, 972115.8720345042]</t>
+  </si>
+  <si>
+    <t>[972115.8720345042, 998728.7410326856]</t>
+  </si>
+  <si>
+    <t>[998728.7410326856, 998729.9640914622]</t>
+  </si>
+  <si>
+    <t>[998729.9640914622, 1041384.3698367262]</t>
+  </si>
+  <si>
+    <t>[1041384.3698367262, 1041384.6031700595]</t>
+  </si>
+  <si>
+    <t>[1041384.6031700595, 1125488.7450220904]</t>
+  </si>
+  <si>
+    <t>[1125488.7450220904, 1125489.827995976]</t>
+  </si>
+  <si>
+    <t>[1125489.827995976, 1127594.4313979323]</t>
+  </si>
+  <si>
+    <t>[1127594.4313979323, 1127594.6647312657]</t>
+  </si>
+  <si>
+    <t>[1127594.6647312657, 1127995.7887530946]</t>
+  </si>
+  <si>
+    <t>[1127995.7887530946, 1127996.022086428]</t>
+  </si>
+  <si>
+    <t>[1127996.022086428, 1142208.2236019943]</t>
+  </si>
+  <si>
+    <t>[1142208.2236019943, 1142208.4569353277]</t>
+  </si>
+  <si>
+    <t>[1142208.4569353277, 1185959.5027299628]</t>
+  </si>
+  <si>
+    <t>[1185959.5027299628, 1185959.7360632962]</t>
+  </si>
+  <si>
+    <t>[1185959.7360632962, 1206246.1874211174]</t>
+  </si>
+  <si>
+    <t>[1206246.1874211174, 1206246.4207544508]</t>
+  </si>
+  <si>
+    <t>[1206246.4207544508, 1229597.9831644085]</t>
+  </si>
+  <si>
+    <t>[1229597.9831644085, 1229600.99286855]</t>
+  </si>
+  <si>
+    <t>[1229600.99286855, 1230265.9618873734]</t>
+  </si>
+  <si>
+    <t>[1230265.9618873734, 1230266.1952207068]</t>
+  </si>
+  <si>
+    <t>[1230266.1952207068, 1237259.8023954195]</t>
+  </si>
+  <si>
+    <t>[1237259.8023954195, 1237260.816927266]</t>
+  </si>
+  <si>
+    <t>[1237260.816927266, 1367208.4110814594]</t>
+  </si>
+  <si>
+    <t>[1367208.4110814594, 1367208.6444147928]</t>
+  </si>
+  <si>
+    <t>[1367208.6444147928, 1400034.342573245]</t>
+  </si>
+  <si>
+    <t>[1400034.342573245, 1400038.5317164042]</t>
+  </si>
+  <si>
+    <t>[1400038.5317164042, 1448413.394946363]</t>
+  </si>
+  <si>
+    <t>[1448413.394946363, 1448414.8982564183]</t>
+  </si>
+  <si>
+    <t>[1448414.8982564183, 1476237.1277738088]</t>
+  </si>
+  <si>
+    <t>[1476237.1277738088, 1476237.7589826193]</t>
+  </si>
+  <si>
+    <t>[1476237.7589826193, 1483483.3410726062]</t>
+  </si>
+  <si>
+    <t>[1483483.3410726062, 1483483.5744059396]</t>
+  </si>
+  <si>
+    <t>[1483483.5744059396, 1501947.1144407934]</t>
+  </si>
+  <si>
+    <t>[1501947.1144407934, 1501947.3477741268]</t>
+  </si>
+  <si>
+    <t>[1501947.3477741268, 1524099.2038088352]</t>
+  </si>
+  <si>
+    <t>[1524099.2038088352, 1524100.274462589]</t>
+  </si>
+  <si>
+    <t>[1524100.274462589, 1531977.1957735522]</t>
+  </si>
+  <si>
+    <t>[1531977.1957735522, 1531977.4291068856]</t>
+  </si>
+  <si>
+    <t>[1531977.4291068856, 1538897.4364706045]</t>
+  </si>
+  <si>
+    <t>[1538897.4364706045, 1539065.4364706045]</t>
+  </si>
+  <si>
+    <t>[1539065.4364706045, 1556194.6125569197]</t>
+  </si>
+  <si>
+    <t>[1556194.6125569197, 1556202.2273464685]</t>
+  </si>
+  <si>
+    <t>[1556202.2273464685, 1583967.7121170934]</t>
+  </si>
+  <si>
+    <t>[1583967.7121170934, 1583973.0360859055]</t>
+  </si>
+  <si>
+    <t>[1583973.0360859055, 1614605.815078784]</t>
+  </si>
+  <si>
+    <t>[1614605.815078784, 1614773.815078784]</t>
+  </si>
+  <si>
+    <t>[1614773.815078784, 1637304.7678499056]</t>
+  </si>
+  <si>
+    <t>[1637304.7678499056, 1637305.5155404618]</t>
+  </si>
+  <si>
+    <t>[1637305.5155404618, 1640707.2096863145]</t>
+  </si>
+  <si>
+    <t>[1640707.2096863145, 1640707.4430196478]</t>
+  </si>
+  <si>
+    <t>[1640707.4430196478, 1642209.0868892113]</t>
+  </si>
+  <si>
+    <t>[1642209.0868892113, 1642377.0868892113]</t>
+  </si>
+  <si>
+    <t>[1642377.0868892113, 1661920.6849349446]</t>
+  </si>
+  <si>
+    <t>[1661920.6849349446, 1661920.918268278]</t>
+  </si>
+  <si>
+    <t>[1661920.918268278, 1740860.7605147148]</t>
+  </si>
+  <si>
+    <t>[1740860.7605147148, 1740862.4730055893]</t>
+  </si>
+  <si>
+    <t>[1740862.4730055893, 1751863.9048243754]</t>
+  </si>
+  <si>
+    <t>[1751863.9048243754, 1751864.1381577088]</t>
+  </si>
+  <si>
+    <t>[1751864.1381577088, 1757162.365428315]</t>
+  </si>
+  <si>
+    <t>[1757162.365428315, 1757163.9338054426]</t>
+  </si>
+  <si>
+    <t>[1757163.9338054426, 1766654.5760084281]</t>
+  </si>
+  <si>
+    <t>[1766654.5760084281, 1766654.8093417615]</t>
+  </si>
+  <si>
+    <t>[1766654.8093417615, 1825584.1585721842]</t>
+  </si>
+  <si>
+    <t>[1825584.1585721842, 1825584.3919055176]</t>
+  </si>
+  <si>
+    <t>[1825584.3919055176, 1855598.4296611103]</t>
+  </si>
+  <si>
+    <t>[1855598.4296611103, 1855599.457736255]</t>
+  </si>
+  <si>
+    <t>[1855599.457736255, 1858582.1356689117]</t>
+  </si>
+  <si>
+    <t>[1858582.1356689117, 1858591.1312234062]</t>
+  </si>
+  <si>
+    <t>[1858591.1312234062, 1870016.2700822286]</t>
+  </si>
+  <si>
+    <t>[1870016.2700822286, 1870016.503415562]</t>
+  </si>
+  <si>
+    <t>[1870016.503415562, 1881276.727865747]</t>
+  </si>
+  <si>
+    <t>[1881276.727865747, 1881276.9611990803]</t>
+  </si>
+  <si>
+    <t>[1881276.9611990803, 1882347.7508762295]</t>
+  </si>
+  <si>
+    <t>[1882347.7508762295, 1882348.3635206115]</t>
+  </si>
+  <si>
+    <t>[1882348.3635206115, 1887440.7239426384]</t>
+  </si>
+  <si>
+    <t>[1887440.7239426384, 1887440.9572759718]</t>
+  </si>
+  <si>
+    <t>[1887440.9572759718, 1934500.3193445152]</t>
+  </si>
+  <si>
+    <t>[1934500.3193445152, 1934500.5526778486]</t>
+  </si>
+  <si>
+    <t>[1934500.5526778486, 1935459.3992691422]</t>
+  </si>
+  <si>
+    <t>[1935459.3992691422, 1935460.1459519537]</t>
+  </si>
+  <si>
+    <t>[1935460.1459519537, 1994774.742526066]</t>
+  </si>
+  <si>
+    <t>[1994774.742526066, 1994778.7056604296]</t>
+  </si>
+  <si>
+    <t>[1994778.7056604296, 2021009.2652915006]</t>
+  </si>
+  <si>
+    <t>[2021009.2652915006, 2021011.8918647333]</t>
+  </si>
+  <si>
+    <t>[2021011.8918647333, 2030889.989761321]</t>
+  </si>
+  <si>
+    <t>[2030889.989761321, 2030890.9296806992]</t>
+  </si>
+  <si>
+    <t>[2030890.9296806992, 2036323.6194800204]</t>
+  </si>
+  <si>
+    <t>[2036323.6194800204, 2036323.8528133538]</t>
+  </si>
+  <si>
+    <t>[2036323.8528133538, 2039901.6551534126]</t>
+  </si>
+  <si>
+    <t>[2039901.6551534126, 2039901.888486746]</t>
+  </si>
+  <si>
+    <t>[2039901.888486746, 2040524.2478173773]</t>
+  </si>
+  <si>
+    <t>[2040524.2478173773, 2040529.6305611024]</t>
+  </si>
+  <si>
+    <t>[2040529.6305611024, 2053478.869581969]</t>
+  </si>
+  <si>
+    <t>[2053478.869581969, 2053479.1029153024]</t>
+  </si>
+  <si>
+    <t>[2053479.1029153024, 2063756.8504377494]</t>
+  </si>
+  <si>
+    <t>[2063756.8504377494, 2063757.0837710828]</t>
+  </si>
+  <si>
+    <t>[2063757.0837710828, 2160825.2680090377]</t>
+  </si>
+  <si>
+    <t>[2160825.2680090377, 2160825.501342371]</t>
+  </si>
+  <si>
+    <t>[2160825.501342371, 2194904.6098494357]</t>
+  </si>
+  <si>
+    <t>[2194904.6098494357, 2194905.8629370164]</t>
+  </si>
+  <si>
+    <t>[2194905.8629370164, 2277792.2710390477]</t>
+  </si>
+  <si>
+    <t>[2277792.2710390477, 2277795.6998027717]</t>
+  </si>
+  <si>
+    <t>[2277795.6998027717, 2296065.340080054]</t>
+  </si>
+  <si>
+    <t>[2296065.340080054, 2296068.3049837356]</t>
+  </si>
+  <si>
+    <t>[2296068.3049837356, 2340160.3742739987]</t>
+  </si>
+  <si>
+    <t>[2340160.3742739987, 2340160.607607332]</t>
+  </si>
+  <si>
+    <t>[2340160.607607332, 2433753.8459869055]</t>
+  </si>
+  <si>
+    <t>[2433753.8459869055, 2433754.9788546725]</t>
+  </si>
+  <si>
+    <t>[2433754.9788546725, 2458109.5002902676]</t>
+  </si>
+  <si>
+    <t>[2458109.5002902676, 2458109.733623601]</t>
+  </si>
+  <si>
+    <t>[2458109.733623601, 2568874.8215152714]</t>
+  </si>
+  <si>
+    <t>[2568874.8215152714, 2568877.827339151]</t>
+  </si>
+  <si>
+    <t>[2568877.827339151, 2633098.7200749638]</t>
+  </si>
+  <si>
+    <t>[2633098.7200749638, 2633101.2251222567]</t>
+  </si>
+  <si>
+    <t>[2633101.2251222567, 2687724.13679678]</t>
+  </si>
+  <si>
+    <t>[2687724.13679678, 2687727.5961895026]</t>
+  </si>
+  <si>
+    <t>[2687727.5961895026, 2790151.8724989183]</t>
+  </si>
+  <si>
+    <t>[2790151.8724989183, 2790154.716191488]</t>
+  </si>
+  <si>
+    <t>[2790154.716191488, 2830080.3979958715]</t>
+  </si>
+  <si>
+    <t>[2830080.3979958715, 2830082.711867648]</t>
+  </si>
+  <si>
+    <t>[2830082.711867648, 2889226.6496848525]</t>
+  </si>
+  <si>
+    <t>[2889226.6496848525, 2889227.423915162]</t>
+  </si>
+  <si>
+    <t>[2889227.423915162, 2893193.3184762932]</t>
+  </si>
+  <si>
+    <t>[2893193.3184762932, 2893195.0102780894]</t>
+  </si>
+  <si>
+    <t>[2893195.0102780894, 2938903.3112227414]</t>
+  </si>
+  <si>
+    <t>[2938903.3112227414, 2938908.7619823464]</t>
+  </si>
+  <si>
+    <t>[2938908.7619823464, 2946191.6583782732]</t>
+  </si>
+  <si>
+    <t>[2946191.6583782732, 2946196.506896322]</t>
+  </si>
+  <si>
+    <t>[2946196.506896322, 2947871.763099544]</t>
+  </si>
+  <si>
+    <t>[2947871.763099544, 2947871.9964328776]</t>
+  </si>
+  <si>
+    <t>[2947871.9964328776, 2970281.3850802733]</t>
+  </si>
+  <si>
+    <t>[2970281.3850802733, 2970281.6184136067]</t>
+  </si>
+  <si>
+    <t>[2970281.6184136067, 2971649.7250759974]</t>
+  </si>
+  <si>
+    <t>[2971649.7250759974, 2971650.605600204]</t>
+  </si>
+  <si>
+    <t>[2971650.605600204, 3049306.5369281014]</t>
+  </si>
+  <si>
+    <t>[3049306.5369281014, 3049308.6921401597]</t>
+  </si>
+  <si>
+    <t>[3049308.6921401597, 3117482.429028516]</t>
+  </si>
+  <si>
+    <t>[3117482.429028516, 3117483.9573386475]</t>
+  </si>
+  <si>
+    <t>[3117483.9573386475, 3156583.5214404953]</t>
+  </si>
+  <si>
+    <t>[3156583.5214404953, 3156583.7547738287]</t>
+  </si>
+  <si>
+    <t>[3156583.7547738287, 3185669.5767901572]</t>
+  </si>
+  <si>
+    <t>[3185669.5767901572, 3185669.8101234906]</t>
+  </si>
+  <si>
+    <t>[3185669.8101234906, 3208669.562032646]</t>
+  </si>
+  <si>
+    <t>[3208669.562032646, 3208671.1484776526]</t>
+  </si>
+  <si>
+    <t>[3208671.1484776526, 3210186.218905114]</t>
+  </si>
+  <si>
+    <t>[3210186.218905114, 3210354.218905114]</t>
+  </si>
+  <si>
+    <t>[3210354.218905114, 3258657.3487184593]</t>
+  </si>
+  <si>
+    <t>[3258657.3487184593, 3258657.5820517926]</t>
+  </si>
+  <si>
+    <t>[3258657.5820517926, 3346167.1302300547]</t>
+  </si>
+  <si>
+    <t>[3346167.1302300547, 3346168.678612123]</t>
+  </si>
+  <si>
+    <t>[3346168.678612123, 3370735.6439823527]</t>
+  </si>
+  <si>
+    <t>[3370735.6439823527, 3370903.6439823527]</t>
+  </si>
+  <si>
+    <t>[3370903.6439823527, 3509067.5165509423]</t>
+  </si>
+  <si>
+    <t>[3509067.5165509423, 3509072.313821213]</t>
+  </si>
+  <si>
+    <t>[3509072.313821213, 3562477.4483686113]</t>
+  </si>
+  <si>
+    <t>[3562477.4483686113, 3562478.1963943397]</t>
+  </si>
+  <si>
+    <t>[3562478.1963943397, 4158633.511435157]</t>
+  </si>
+  <si>
+    <t>[4158633.511435157, 4158639.585121228]</t>
+  </si>
+  <si>
+    <t>[4158639.585121228, 4223329.724194179]</t>
+  </si>
+  <si>
+    <t>[4223329.724194179, 4223334.233662424]</t>
+  </si>
+  <si>
+    <t>[4223334.233662424, 4269002.699404985]</t>
+  </si>
+  <si>
+    <t>[4269002.699404985, 4269008.77295068]</t>
+  </si>
+  <si>
+    <t>[4269008.77295068, 4298495.074358161]</t>
+  </si>
+  <si>
+    <t>[4298495.074358161, 4298498.939332489]</t>
+  </si>
+  <si>
+    <t>[4298498.939332489, 4316680.51472575]</t>
+  </si>
+  <si>
+    <t>[4316680.51472575, 4316681.445131144]</t>
+  </si>
+  <si>
+    <t>[4316681.445131144, 4438066.308078333]</t>
+  </si>
+  <si>
+    <t>[4438066.308078333, 4438067.584197215]</t>
+  </si>
+  <si>
+    <t>[4438067.584197215, 4626874.632412664]</t>
+  </si>
+  <si>
+    <t>[4626874.632412664, 4626876.552986578]</t>
+  </si>
+  <si>
+    <t>[4626876.552986578, 4719918.475778356]</t>
+  </si>
+  <si>
+    <t>[4719918.475778356, 4719925.88061775]</t>
+  </si>
+  <si>
+    <t>[4719925.88061775, 4822897.467483271]</t>
+  </si>
+  <si>
+    <t>[4822897.467483271, 4822900.366163765]</t>
+  </si>
+  <si>
+    <t>[4822900.366163765, 4895436.193972977]</t>
+  </si>
+  <si>
+    <t>[4895436.193972977, 4895437.02935347]</t>
+  </si>
+  <si>
+    <t>[4895437.02935347, 4900089.5207908945]</t>
+  </si>
+  <si>
+    <t>[4900089.5207908945, 4900090.046201814]</t>
+  </si>
+  <si>
+    <t>[4900090.046201814, 5086043.194477683]</t>
+  </si>
+  <si>
+    <t>[5086043.194477683, 5086044.547745483]</t>
+  </si>
+  <si>
+    <t>[5086044.547745483, 5109108.523282575]</t>
+  </si>
+  <si>
+    <t>[5109108.523282575, 5109118.903759819]</t>
+  </si>
+  <si>
+    <t>[5109118.903759819, 5120173.060194382]</t>
+  </si>
+  <si>
+    <t>[5120173.060194382, 5120173.720199006]</t>
+  </si>
+  <si>
+    <t>[5120173.720199006, 5188348.626000622]</t>
+  </si>
+  <si>
+    <t>[5188348.626000622, 5188349.441468229]</t>
+  </si>
+  <si>
+    <t>[5188349.441468229, 5454043.973151761]</t>
+  </si>
+  <si>
+    <t>[5454043.973151761, 5454050.392406957]</t>
+  </si>
+  <si>
+    <t>[5454050.392406957, 5696156.62035017]</t>
+  </si>
+  <si>
+    <t>[5696156.62035017, 5696159.805054355]</t>
+  </si>
+  <si>
+    <t>[5696159.805054355, 5702735.435796999]</t>
+  </si>
+  <si>
+    <t>[5702735.435796999, 5702740.42767853]</t>
+  </si>
+  <si>
+    <t>[5702740.42767853, 5723192.251667849]</t>
+  </si>
+  <si>
+    <t>[5723192.251667849, 5723195.198039128]</t>
+  </si>
+  <si>
+    <t>[5723195.198039128, 5840482.896401487]</t>
+  </si>
+  <si>
+    <t>[5840482.896401487, 5840488.942149631]</t>
+  </si>
+  <si>
+    <t>[5840488.942149631, 5920101.300523855]</t>
+  </si>
+  <si>
+    <t>[5920101.300523855, 5920102.703805145]</t>
+  </si>
+  <si>
+    <t>[5920102.703805145, 5994826.416171131]</t>
+  </si>
+  <si>
+    <t>[5994826.416171131, 5994827.261541964]</t>
+  </si>
+  <si>
+    <t>[5994827.261541964, 6028697.892622443]</t>
+  </si>
+  <si>
+    <t>[6028697.892622443, 6028699.88517936]</t>
+  </si>
+  <si>
+    <t>[6028699.88517936, 6032328.019689726]</t>
+  </si>
+  <si>
+    <t>[6032328.019689726, 6032343.3283007005]</t>
+  </si>
+  <si>
+    <t>[6032343.3283007005, 6150693.365785039]</t>
+  </si>
+  <si>
+    <t>[6150693.365785039, 6150694.581669076]</t>
+  </si>
+  <si>
+    <t>[6150694.581669076, 6150706.223200057]</t>
+  </si>
+  <si>
+    <t>[6150706.223200057, 6150707.267836563]</t>
+  </si>
+  <si>
+    <t>[6150707.267836563, 6185890.841812668]</t>
+  </si>
+  <si>
+    <t>[6185890.841812668, 6185891.506692852]</t>
+  </si>
+  <si>
+    <t>[6185891.506692852, 6225379.544292562]</t>
+  </si>
+  <si>
+    <t>[6225379.544292562, 6225380.946539864]</t>
+  </si>
+  <si>
+    <t>[6225380.946539864, 6253539.264832923]</t>
+  </si>
+  <si>
+    <t>[6253539.264832923, 6253542.314111278]</t>
+  </si>
+  <si>
+    <t>[6253542.314111278, 6365526.761151055]</t>
+  </si>
+  <si>
+    <t>[6365526.761151055, 6365536.066501178]</t>
+  </si>
+  <si>
+    <t>[6365536.066501178, 6457276.2439275915]</t>
+  </si>
+  <si>
+    <t>[6457276.2439275915, 6457277.806976895]</t>
+  </si>
+  <si>
+    <t>[6457277.806976895, 6492297.597024193]</t>
+  </si>
+  <si>
+    <t>[6492297.597024193, 6492298.261098577]</t>
+  </si>
+  <si>
+    <t>[6492298.261098577, 6514909.653897615]</t>
+  </si>
+  <si>
+    <t>[6514909.653897615, 6514911.821088876]</t>
+  </si>
+  <si>
+    <t>[6514911.821088876, 6540571.751980952]</t>
+  </si>
+  <si>
+    <t>[6540571.751980952, 6540573.055397324]</t>
+  </si>
+  <si>
+    <t>[6540573.055397324, 6548969.408201107]</t>
+  </si>
+  <si>
+    <t>[6548969.408201107, 6548969.950707284]</t>
+  </si>
+  <si>
+    <t>[6548969.950707284, 6583695.900768195]</t>
+  </si>
+  <si>
+    <t>[6583695.900768195, 6583696.719017417]</t>
+  </si>
+  <si>
+    <t>[6583696.719017417, 6607279.437897797]</t>
+  </si>
+  <si>
+    <t>[6607279.437897797, 6607285.207950516]</t>
+  </si>
+  <si>
+    <t>[6607285.207950516, 6654412.166678274]</t>
+  </si>
+  <si>
+    <t>[6654412.166678274, 6654412.886036533]</t>
+  </si>
+  <si>
+    <t>[6654412.886036533, 6951281.244781379]</t>
+  </si>
+  <si>
+    <t>[6951281.244781379, 6951286.8210590165]</t>
+  </si>
+  <si>
+    <t>[6951286.8210590165, 6951340.354409204]</t>
+  </si>
+  <si>
+    <t>[6951340.354409204, 6951340.858820315]</t>
+  </si>
+  <si>
+    <t>[6951340.858820315, 7030596.034170553]</t>
+  </si>
+  <si>
+    <t>[7030596.034170553, 7030600.395435519]</t>
+  </si>
+  <si>
+    <t>[7030600.395435519, 7080477.452756029]</t>
+  </si>
+  <si>
+    <t>[7080477.452756029, 7080480.642672429]</t>
+  </si>
+  <si>
+    <t>[7080480.642672429, 7218916.882856429]</t>
+  </si>
+  <si>
+    <t>[7218916.882856429, 7218919.964666916]</t>
+  </si>
+  <si>
+    <t>[7218919.964666916, 7235510.5190076055]</t>
+  </si>
+  <si>
+    <t>[7235510.5190076055, 7235511.731073251]</t>
+  </si>
+  <si>
+    <t>[7235511.731073251, 7242391.973607197]</t>
+  </si>
+  <si>
+    <t>[7242391.973607197, 7242395.485514753]</t>
+  </si>
+  <si>
+    <t>[7242395.485514753, 7309691.910925354]</t>
+  </si>
+  <si>
+    <t>[7309691.910925354, 7309692.829575794]</t>
+  </si>
+  <si>
+    <t>[7309692.829575794, 7324227.752228289]</t>
+  </si>
+  <si>
+    <t>[7324227.752228289, 7324231.796384917]</t>
+  </si>
+  <si>
+    <t>[7324231.796384917, 7332882.170175303]</t>
+  </si>
+  <si>
+    <t>[7332882.170175303, 7332883.087523178]</t>
+  </si>
+  <si>
+    <t>[7332883.087523178, 7342493.5304224985]</t>
+  </si>
+  <si>
+    <t>[7342493.5304224985, 7342494.078472466]</t>
+  </si>
+  <si>
+    <t>[7342494.078472466, 7353146.099100618]</t>
+  </si>
+  <si>
+    <t>[7353146.099100618, 7353147.140410517]</t>
+  </si>
+  <si>
+    <t>[7353147.140410517, 7409077.001603571]</t>
+  </si>
+  <si>
+    <t>[7409077.001603571, 7409077.959579242]</t>
+  </si>
+  <si>
+    <t>[7409077.959579242, 7421856.993140218]</t>
+  </si>
+  <si>
+    <t>[7421856.993140218, 7421857.811050504]</t>
+  </si>
+  <si>
+    <t>[7421857.811050504, 7465469.765287158]</t>
+  </si>
+  <si>
+    <t>[7465469.765287158, 7465472.617074402]</t>
+  </si>
+  <si>
+    <t>[7465472.617074402, 7703999.895995918]</t>
+  </si>
+  <si>
+    <t>[7703999.895995918, 7704001.746838093]</t>
+  </si>
+  <si>
+    <t>[7704001.746838093, 7713754.791286587]</t>
+  </si>
+  <si>
+    <t>[7713754.791286587, 7713755.339987703]</t>
+  </si>
+  <si>
+    <t>[7713755.339987703, 7831421.054006255]</t>
+  </si>
+  <si>
+    <t>[7831421.054006255, 7831423.874105605]</t>
+  </si>
+  <si>
+    <t>[7831423.874105605, 7924821.840898648]</t>
+  </si>
+  <si>
+    <t>[7924821.840898648, 7924823.308839291]</t>
+  </si>
+  <si>
+    <t>[7924823.308839291, 8007294.477473935]</t>
+  </si>
+  <si>
+    <t>[8007294.477473935, 8007298.017258862]</t>
+  </si>
+  <si>
+    <t>[8007298.017258862, 8037977.3721886575]</t>
+  </si>
+  <si>
+    <t>[8037977.3721886575, 8037978.016443703]</t>
+  </si>
+  <si>
+    <t>[8037978.016443703, 8064242.996736955]</t>
+  </si>
+  <si>
+    <t>[8064242.996736955, 8064248.220732851]</t>
+  </si>
+  <si>
+    <t>[8064248.220732851, 8119275.96842695]</t>
+  </si>
+  <si>
+    <t>[8119275.96842695, 8119277.360505304]</t>
+  </si>
+  <si>
+    <t>[8119277.360505304, 8124074.685814504]</t>
+  </si>
+  <si>
+    <t>[8124074.685814504, 8124078.197296552]</t>
+  </si>
+  <si>
+    <t>[8124078.197296552, 8290881.58600657]</t>
+  </si>
+  <si>
+    <t>[8290881.58600657, 8290882.851832545]</t>
+  </si>
+  <si>
+    <t>[8290882.851832545, 8307283.082113714]</t>
+  </si>
+  <si>
+    <t>[8307283.082113714, 8307283.661167277]</t>
+  </si>
+  <si>
+    <t>[8307283.661167277, 8507795.585802287]</t>
+  </si>
+  <si>
+    <t>[8507795.585802287, 8507799.178424258]</t>
+  </si>
+  <si>
+    <t>[8507799.178424258, 8564303.428417275]</t>
+  </si>
+  <si>
+    <t>[8564303.428417275, 8564305.964666443]</t>
+  </si>
+  <si>
+    <t>[8564305.964666443, 8623878.458014736]</t>
+  </si>
+  <si>
+    <t>[8623878.458014736, 8623884.450860156]</t>
+  </si>
+  <si>
+    <t>[8623884.450860156, 8678672.337126201]</t>
+  </si>
+  <si>
+    <t>[8678672.337126201, 8678674.53713157]</t>
+  </si>
+  <si>
+    <t>[8678674.53713157, 8714938.49185478]</t>
+  </si>
+  <si>
+    <t>[8714938.49185478, 8714939.94186306]</t>
+  </si>
+  <si>
+    <t>[8714939.94186306, 8745135.66730672]</t>
+  </si>
+  <si>
+    <t>[8745135.66730672, 8745147.548611986]</t>
+  </si>
+  <si>
+    <t>[8745147.548611986, 8758968.20136623]</t>
   </si>
   <si>
     <t>['V1']</t>
@@ -475,76 +1615,88 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['V4']</t>
+  </si>
+  <si>
+    <t>['V5']</t>
+  </si>
+  <si>
+    <t>['V3']</t>
+  </si>
+  <si>
+    <t>['V4', 'Vs3']</t>
+  </si>
+  <si>
+    <t>['Vs1']</t>
+  </si>
+  <si>
+    <t>['V5', 'Vs2']</t>
+  </si>
+  <si>
+    <t>['V6']</t>
+  </si>
+  <si>
+    <t>['P8']</t>
+  </si>
+  <si>
+    <t>['Vs2']</t>
+  </si>
+  <si>
+    <t>['P10']</t>
+  </si>
+  <si>
+    <t>['V7']</t>
+  </si>
+  <si>
     <t>['V2']</t>
   </si>
   <si>
-    <t>['V4']</t>
-  </si>
-  <si>
-    <t>['V6']</t>
-  </si>
-  <si>
-    <t>['V5']</t>
-  </si>
-  <si>
-    <t>['Vs1']</t>
+    <t>['T1']</t>
+  </si>
+  <si>
+    <t>['P9']</t>
+  </si>
+  <si>
+    <t>['P6']</t>
+  </si>
+  <si>
+    <t>['S4']</t>
+  </si>
+  <si>
+    <t>['P5']</t>
   </si>
   <si>
     <t>['P1']</t>
   </si>
   <si>
-    <t>['V7']</t>
+    <t>['P4']</t>
+  </si>
+  <si>
+    <t>['S1']</t>
+  </si>
+  <si>
+    <t>['P3']</t>
+  </si>
+  <si>
+    <t>['S2']</t>
+  </si>
+  <si>
+    <t>['S3']</t>
+  </si>
+  <si>
+    <t>['P2']</t>
+  </si>
+  <si>
+    <t>['P7']</t>
+  </si>
+  <si>
+    <t>['D1']</t>
+  </si>
+  <si>
+    <t>['T2']</t>
   </si>
   <si>
     <t>['Vs3']</t>
-  </si>
-  <si>
-    <t>['P2']</t>
-  </si>
-  <si>
-    <t>['V3']</t>
-  </si>
-  <si>
-    <t>['P4']</t>
-  </si>
-  <si>
-    <t>['Vs2']</t>
-  </si>
-  <si>
-    <t>['P3']</t>
-  </si>
-  <si>
-    <t>['P9']</t>
-  </si>
-  <si>
-    <t>['S3']</t>
-  </si>
-  <si>
-    <t>['T2']</t>
-  </si>
-  <si>
-    <t>['P7']</t>
-  </si>
-  <si>
-    <t>['P8']</t>
-  </si>
-  <si>
-    <t>['P10']</t>
-  </si>
-  <si>
-    <t>['P5']</t>
-  </si>
-  <si>
-    <t>['S1']</t>
-  </si>
-  <si>
-    <t>['T1']</t>
-  </si>
-  <si>
-    <t>['S4']</t>
-  </si>
-  <si>
-    <t>['P6']</t>
   </si>
 </sst>
 </file>
@@ -902,7 +2054,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -927,10 +2079,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>531</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -941,10 +2093,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -955,10 +2107,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>533</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -969,10 +2121,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -983,10 +2135,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>534</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -997,10 +2149,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1011,10 +2163,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>535</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1025,10 +2177,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1039,10 +2191,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>534</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1053,10 +2205,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1067,10 +2219,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>533</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1081,10 +2233,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>536</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1095,10 +2247,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>533</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1109,10 +2261,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1123,10 +2275,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>537</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1137,10 +2289,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1151,10 +2303,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>537</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1165,10 +2317,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1179,10 +2331,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>535</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1193,10 +2345,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1207,10 +2359,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>534</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1221,10 +2373,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>538</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1235,10 +2387,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>534</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1249,10 +2401,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1263,10 +2415,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>535</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1277,10 +2429,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1291,10 +2443,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>539</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1305,10 +2457,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1319,10 +2471,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>540</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1333,10 +2485,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1347,10 +2499,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>541</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1361,10 +2513,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1375,10 +2527,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>539</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1389,10 +2541,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1403,10 +2555,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>535</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1417,10 +2569,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1431,10 +2583,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>539</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1445,10 +2597,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1459,10 +2611,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>535</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1473,10 +2625,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1487,10 +2639,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>539</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1501,10 +2653,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>539</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1515,10 +2667,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>542</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1529,10 +2681,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1543,10 +2695,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>543</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1557,10 +2709,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>543</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1571,10 +2723,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>535</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1585,10 +2737,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>535</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1599,10 +2751,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>537</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1613,10 +2765,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>537</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1627,10 +2779,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>544</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1641,10 +2793,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>544</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1655,10 +2807,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>541</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1669,10 +2821,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>541</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1683,10 +2835,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>537</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1697,10 +2849,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>537</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1711,10 +2863,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>535</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1725,10 +2877,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>535</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1739,10 +2891,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>539</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1753,10 +2905,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>539</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1767,10 +2919,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>544</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1781,10 +2933,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D63" t="s">
-        <v>167</v>
+        <v>544</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1795,10 +2947,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>544</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1809,10 +2961,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>544</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1823,10 +2975,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>535</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1837,10 +2989,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>535</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1851,10 +3003,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>544</v>
       </c>
       <c r="D68" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1865,10 +3017,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>544</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1879,10 +3031,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>535</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1893,10 +3045,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>535</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1907,10 +3059,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>545</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1921,10 +3073,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>545</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1935,10 +3087,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>543</v>
       </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1949,10 +3101,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>543</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1963,10 +3115,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>543</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1977,10 +3129,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>543</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1991,10 +3143,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>535</v>
       </c>
       <c r="D78" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2005,10 +3157,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D79" t="s">
-        <v>169</v>
+        <v>535</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2019,10 +3171,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>161</v>
+        <v>541</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2033,10 +3185,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>541</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2047,10 +3199,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>537</v>
       </c>
       <c r="D82" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2061,10 +3213,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D83" t="s">
-        <v>170</v>
+        <v>537</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2075,10 +3227,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>543</v>
       </c>
       <c r="D84" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2089,10 +3241,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D85" t="s">
-        <v>155</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2103,10 +3255,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>155</v>
+        <v>541</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2117,10 +3269,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D87" t="s">
-        <v>155</v>
+        <v>541</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2131,10 +3283,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>155</v>
+        <v>535</v>
       </c>
       <c r="D88" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2145,10 +3297,10 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D89" t="s">
-        <v>155</v>
+        <v>535</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2159,10 +3311,10 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>159</v>
+        <v>537</v>
       </c>
       <c r="D90" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2173,10 +3325,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D91" t="s">
-        <v>159</v>
+        <v>537</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2187,10 +3339,10 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>543</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2201,10 +3353,10 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>543</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2215,10 +3367,10 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>171</v>
+        <v>541</v>
       </c>
       <c r="D94" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2229,10 +3381,10 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D95" t="s">
-        <v>171</v>
+        <v>541</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2243,10 +3395,10 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>172</v>
+        <v>542</v>
       </c>
       <c r="D96" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2257,10 +3409,10 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D97" t="s">
-        <v>172</v>
+        <v>542</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2271,10 +3423,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>166</v>
+        <v>546</v>
       </c>
       <c r="D98" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2285,10 +3437,10 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D99" t="s">
-        <v>166</v>
+        <v>546</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2299,10 +3451,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>169</v>
+        <v>542</v>
       </c>
       <c r="D100" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2313,10 +3465,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D101" t="s">
-        <v>169</v>
+        <v>542</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2327,10 +3479,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>169</v>
+        <v>541</v>
       </c>
       <c r="D102" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2341,10 +3493,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D103" t="s">
-        <v>169</v>
+        <v>541</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2355,10 +3507,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>169</v>
+        <v>541</v>
       </c>
       <c r="D104" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2369,10 +3521,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D105" t="s">
-        <v>169</v>
+        <v>541</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2383,10 +3535,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>173</v>
+        <v>535</v>
       </c>
       <c r="D106" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2397,10 +3549,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D107" t="s">
-        <v>173</v>
+        <v>535</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2411,10 +3563,10 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>174</v>
+        <v>543</v>
       </c>
       <c r="D108" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2425,10 +3577,10 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D109" t="s">
-        <v>174</v>
+        <v>543</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2439,10 +3591,10 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>171</v>
+        <v>543</v>
       </c>
       <c r="D110" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2453,10 +3605,10 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D111" t="s">
-        <v>171</v>
+        <v>543</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2467,10 +3619,10 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>171</v>
+        <v>547</v>
       </c>
       <c r="D112" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2481,10 +3633,10 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D113" t="s">
-        <v>171</v>
+        <v>547</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2495,10 +3647,10 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>170</v>
+        <v>544</v>
       </c>
       <c r="D114" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2509,10 +3661,10 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D115" t="s">
-        <v>170</v>
+        <v>544</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2523,10 +3675,10 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>166</v>
+        <v>535</v>
       </c>
       <c r="D116" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2537,10 +3689,10 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D117" t="s">
-        <v>166</v>
+        <v>535</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2551,10 +3703,10 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>161</v>
+        <v>548</v>
       </c>
       <c r="D118" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2565,10 +3717,10 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D119" t="s">
-        <v>161</v>
+        <v>548</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2579,10 +3731,10 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>541</v>
       </c>
       <c r="D120" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2593,10 +3745,10 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D121" t="s">
-        <v>158</v>
+        <v>541</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2607,10 +3759,10 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>170</v>
+        <v>539</v>
       </c>
       <c r="D122" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2621,10 +3773,10 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D123" t="s">
-        <v>170</v>
+        <v>539</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2635,10 +3787,10 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>175</v>
+        <v>539</v>
       </c>
       <c r="D124" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2649,10 +3801,10 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D125" t="s">
-        <v>175</v>
+        <v>539</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2663,10 +3815,10 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>169</v>
+        <v>539</v>
       </c>
       <c r="D126" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2677,10 +3829,10 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D127" t="s">
-        <v>169</v>
+        <v>539</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2691,10 +3843,10 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>158</v>
+        <v>544</v>
       </c>
       <c r="D128" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2705,10 +3857,10 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D129" t="s">
-        <v>158</v>
+        <v>544</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2719,10 +3871,10 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>166</v>
+        <v>549</v>
       </c>
       <c r="D130" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2733,10 +3885,10 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D131" t="s">
-        <v>166</v>
+        <v>549</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2747,10 +3899,10 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>176</v>
+        <v>545</v>
       </c>
       <c r="D132" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2761,10 +3913,10 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D133" t="s">
-        <v>176</v>
+        <v>545</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2775,10 +3927,10 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>166</v>
+        <v>550</v>
       </c>
       <c r="D134" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2789,10 +3941,10 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D135" t="s">
-        <v>166</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2803,10 +3955,10 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>172</v>
+        <v>541</v>
       </c>
       <c r="D136" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2817,10 +3969,10 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D137" t="s">
-        <v>172</v>
+        <v>541</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2831,10 +3983,10 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>170</v>
+        <v>539</v>
       </c>
       <c r="D138" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2845,10 +3997,10 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D139" t="s">
-        <v>170</v>
+        <v>539</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2859,10 +4011,10 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>169</v>
+        <v>541</v>
       </c>
       <c r="D140" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2873,10 +4025,10 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D141" t="s">
-        <v>169</v>
+        <v>541</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2887,10 +4039,10 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>172</v>
+        <v>541</v>
       </c>
       <c r="D142" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2901,10 +4053,10 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D143" t="s">
-        <v>172</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2915,10 +4067,10 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>169</v>
+        <v>551</v>
       </c>
       <c r="D144" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2929,10 +4081,10 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D145" t="s">
-        <v>169</v>
+        <v>551</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2943,10 +4095,10 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>176</v>
+        <v>545</v>
       </c>
       <c r="D146" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2957,10 +4109,10 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="D147" t="s">
-        <v>176</v>
+        <v>545</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2971,10 +4123,10 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>165</v>
+        <v>539</v>
       </c>
       <c r="D148" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2985,10 +4137,5330 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
+        <v>532</v>
+      </c>
+      <c r="D149" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150" t="s">
+        <v>541</v>
+      </c>
+      <c r="D150" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
         <v>152</v>
       </c>
-      <c r="D149" t="s">
+      <c r="C151" t="s">
+        <v>532</v>
+      </c>
+      <c r="D151" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" t="s">
+        <v>541</v>
+      </c>
+      <c r="D152" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>154</v>
+      </c>
+      <c r="C153" t="s">
+        <v>532</v>
+      </c>
+      <c r="D153" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154" t="s">
+        <v>552</v>
+      </c>
+      <c r="D154" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155" t="s">
+        <v>532</v>
+      </c>
+      <c r="D155" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" t="s">
+        <v>551</v>
+      </c>
+      <c r="D156" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157" t="s">
+        <v>532</v>
+      </c>
+      <c r="D157" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158" t="s">
+        <v>553</v>
+      </c>
+      <c r="D158" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159" t="s">
+        <v>532</v>
+      </c>
+      <c r="D159" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>161</v>
+      </c>
+      <c r="C160" t="s">
+        <v>539</v>
+      </c>
+      <c r="D160" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161" t="s">
+        <v>532</v>
+      </c>
+      <c r="D161" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162" t="s">
+        <v>542</v>
+      </c>
+      <c r="D162" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>164</v>
+      </c>
+      <c r="C163" t="s">
+        <v>532</v>
+      </c>
+      <c r="D163" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
         <v>165</v>
+      </c>
+      <c r="C164" t="s">
+        <v>553</v>
+      </c>
+      <c r="D164" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>166</v>
+      </c>
+      <c r="C165" t="s">
+        <v>532</v>
+      </c>
+      <c r="D165" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166" t="s">
+        <v>550</v>
+      </c>
+      <c r="D166" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>168</v>
+      </c>
+      <c r="C167" t="s">
+        <v>532</v>
+      </c>
+      <c r="D167" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>169</v>
+      </c>
+      <c r="C168" t="s">
+        <v>554</v>
+      </c>
+      <c r="D168" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169" t="s">
+        <v>532</v>
+      </c>
+      <c r="D169" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170" t="s">
+        <v>542</v>
+      </c>
+      <c r="D170" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>172</v>
+      </c>
+      <c r="C171" t="s">
+        <v>532</v>
+      </c>
+      <c r="D171" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>173</v>
+      </c>
+      <c r="C172" t="s">
+        <v>553</v>
+      </c>
+      <c r="D172" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173" t="s">
+        <v>532</v>
+      </c>
+      <c r="D173" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174" t="s">
+        <v>547</v>
+      </c>
+      <c r="D174" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" t="s">
+        <v>532</v>
+      </c>
+      <c r="D175" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>177</v>
+      </c>
+      <c r="C176" t="s">
+        <v>540</v>
+      </c>
+      <c r="D176" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" t="s">
+        <v>532</v>
+      </c>
+      <c r="D177" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>179</v>
+      </c>
+      <c r="C178" t="s">
+        <v>548</v>
+      </c>
+      <c r="D178" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" t="s">
+        <v>532</v>
+      </c>
+      <c r="D179" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>181</v>
+      </c>
+      <c r="C180" t="s">
+        <v>550</v>
+      </c>
+      <c r="D180" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>182</v>
+      </c>
+      <c r="C181" t="s">
+        <v>532</v>
+      </c>
+      <c r="D181" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>183</v>
+      </c>
+      <c r="C182" t="s">
+        <v>549</v>
+      </c>
+      <c r="D182" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>184</v>
+      </c>
+      <c r="C183" t="s">
+        <v>532</v>
+      </c>
+      <c r="D183" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>185</v>
+      </c>
+      <c r="C184" t="s">
+        <v>540</v>
+      </c>
+      <c r="D184" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>186</v>
+      </c>
+      <c r="C185" t="s">
+        <v>532</v>
+      </c>
+      <c r="D185" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>187</v>
+      </c>
+      <c r="C186" t="s">
+        <v>552</v>
+      </c>
+      <c r="D186" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>188</v>
+      </c>
+      <c r="C187" t="s">
+        <v>532</v>
+      </c>
+      <c r="D187" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>189</v>
+      </c>
+      <c r="C188" t="s">
+        <v>547</v>
+      </c>
+      <c r="D188" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>190</v>
+      </c>
+      <c r="C189" t="s">
+        <v>532</v>
+      </c>
+      <c r="D189" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>191</v>
+      </c>
+      <c r="C190" t="s">
+        <v>542</v>
+      </c>
+      <c r="D190" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>192</v>
+      </c>
+      <c r="C191" t="s">
+        <v>532</v>
+      </c>
+      <c r="D191" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>193</v>
+      </c>
+      <c r="C192" t="s">
+        <v>553</v>
+      </c>
+      <c r="D192" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>194</v>
+      </c>
+      <c r="C193" t="s">
+        <v>532</v>
+      </c>
+      <c r="D193" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>195</v>
+      </c>
+      <c r="C194" t="s">
+        <v>545</v>
+      </c>
+      <c r="D194" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>196</v>
+      </c>
+      <c r="C195" t="s">
+        <v>532</v>
+      </c>
+      <c r="D195" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>197</v>
+      </c>
+      <c r="C196" t="s">
+        <v>554</v>
+      </c>
+      <c r="D196" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>198</v>
+      </c>
+      <c r="C197" t="s">
+        <v>532</v>
+      </c>
+      <c r="D197" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>199</v>
+      </c>
+      <c r="C198" t="s">
+        <v>553</v>
+      </c>
+      <c r="D198" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>200</v>
+      </c>
+      <c r="C199" t="s">
+        <v>532</v>
+      </c>
+      <c r="D199" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>201</v>
+      </c>
+      <c r="C200" t="s">
+        <v>547</v>
+      </c>
+      <c r="D200" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>202</v>
+      </c>
+      <c r="C201" t="s">
+        <v>532</v>
+      </c>
+      <c r="D201" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>203</v>
+      </c>
+      <c r="C202" t="s">
+        <v>555</v>
+      </c>
+      <c r="D202" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>204</v>
+      </c>
+      <c r="C203" t="s">
+        <v>532</v>
+      </c>
+      <c r="D203" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>205</v>
+      </c>
+      <c r="C204" t="s">
+        <v>547</v>
+      </c>
+      <c r="D204" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205" t="s">
+        <v>532</v>
+      </c>
+      <c r="D205" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>207</v>
+      </c>
+      <c r="C206" t="s">
+        <v>556</v>
+      </c>
+      <c r="D206" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>208</v>
+      </c>
+      <c r="C207" t="s">
+        <v>532</v>
+      </c>
+      <c r="D207" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>209</v>
+      </c>
+      <c r="C208" t="s">
+        <v>556</v>
+      </c>
+      <c r="D208" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>210</v>
+      </c>
+      <c r="C209" t="s">
+        <v>532</v>
+      </c>
+      <c r="D209" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>211</v>
+      </c>
+      <c r="C210" t="s">
+        <v>553</v>
+      </c>
+      <c r="D210" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>212</v>
+      </c>
+      <c r="C211" t="s">
+        <v>532</v>
+      </c>
+      <c r="D211" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>213</v>
+      </c>
+      <c r="C212" t="s">
+        <v>548</v>
+      </c>
+      <c r="D212" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>214</v>
+      </c>
+      <c r="C213" t="s">
+        <v>532</v>
+      </c>
+      <c r="D213" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>215</v>
+      </c>
+      <c r="C214" t="s">
+        <v>557</v>
+      </c>
+      <c r="D214" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>216</v>
+      </c>
+      <c r="C215" t="s">
+        <v>532</v>
+      </c>
+      <c r="D215" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>217</v>
+      </c>
+      <c r="C216" t="s">
+        <v>549</v>
+      </c>
+      <c r="D216" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>218</v>
+      </c>
+      <c r="C217" t="s">
+        <v>532</v>
+      </c>
+      <c r="D217" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>219</v>
+      </c>
+      <c r="C218" t="s">
+        <v>556</v>
+      </c>
+      <c r="D218" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>220</v>
+      </c>
+      <c r="C219" t="s">
+        <v>532</v>
+      </c>
+      <c r="D219" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>221</v>
+      </c>
+      <c r="C220" t="s">
+        <v>549</v>
+      </c>
+      <c r="D220" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>222</v>
+      </c>
+      <c r="C221" t="s">
+        <v>532</v>
+      </c>
+      <c r="D221" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>223</v>
+      </c>
+      <c r="C222" t="s">
+        <v>554</v>
+      </c>
+      <c r="D222" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>224</v>
+      </c>
+      <c r="C223" t="s">
+        <v>532</v>
+      </c>
+      <c r="D223" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>225</v>
+      </c>
+      <c r="C224" t="s">
+        <v>549</v>
+      </c>
+      <c r="D224" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C225" t="s">
+        <v>532</v>
+      </c>
+      <c r="D225" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C226" t="s">
+        <v>549</v>
+      </c>
+      <c r="D226" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>228</v>
+      </c>
+      <c r="C227" t="s">
+        <v>532</v>
+      </c>
+      <c r="D227" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>229</v>
+      </c>
+      <c r="C228" t="s">
+        <v>549</v>
+      </c>
+      <c r="D228" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>230</v>
+      </c>
+      <c r="C229" t="s">
+        <v>532</v>
+      </c>
+      <c r="D229" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>231</v>
+      </c>
+      <c r="C230" t="s">
+        <v>548</v>
+      </c>
+      <c r="D230" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>232</v>
+      </c>
+      <c r="C231" t="s">
+        <v>532</v>
+      </c>
+      <c r="D231" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>233</v>
+      </c>
+      <c r="C232" t="s">
+        <v>548</v>
+      </c>
+      <c r="D232" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>234</v>
+      </c>
+      <c r="C233" t="s">
+        <v>532</v>
+      </c>
+      <c r="D233" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>235</v>
+      </c>
+      <c r="C234" t="s">
+        <v>554</v>
+      </c>
+      <c r="D234" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>236</v>
+      </c>
+      <c r="C235" t="s">
+        <v>532</v>
+      </c>
+      <c r="D235" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>237</v>
+      </c>
+      <c r="C236" t="s">
+        <v>547</v>
+      </c>
+      <c r="D236" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>238</v>
+      </c>
+      <c r="C237" t="s">
+        <v>532</v>
+      </c>
+      <c r="D237" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>239</v>
+      </c>
+      <c r="C238" t="s">
+        <v>554</v>
+      </c>
+      <c r="D238" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>240</v>
+      </c>
+      <c r="C239" t="s">
+        <v>532</v>
+      </c>
+      <c r="D239" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>241</v>
+      </c>
+      <c r="C240" t="s">
+        <v>540</v>
+      </c>
+      <c r="D240" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>242</v>
+      </c>
+      <c r="C241" t="s">
+        <v>532</v>
+      </c>
+      <c r="D241" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>243</v>
+      </c>
+      <c r="C242" t="s">
+        <v>553</v>
+      </c>
+      <c r="D242" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>244</v>
+      </c>
+      <c r="C243" t="s">
+        <v>532</v>
+      </c>
+      <c r="D243" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>245</v>
+      </c>
+      <c r="C244" t="s">
+        <v>540</v>
+      </c>
+      <c r="D244" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>246</v>
+      </c>
+      <c r="C245" t="s">
+        <v>532</v>
+      </c>
+      <c r="D245" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>247</v>
+      </c>
+      <c r="C246" t="s">
+        <v>553</v>
+      </c>
+      <c r="D246" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>248</v>
+      </c>
+      <c r="C247" t="s">
+        <v>532</v>
+      </c>
+      <c r="D247" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>249</v>
+      </c>
+      <c r="C248" t="s">
+        <v>540</v>
+      </c>
+      <c r="D248" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>250</v>
+      </c>
+      <c r="C249" t="s">
+        <v>532</v>
+      </c>
+      <c r="D249" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>251</v>
+      </c>
+      <c r="C250" t="s">
+        <v>555</v>
+      </c>
+      <c r="D250" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>252</v>
+      </c>
+      <c r="C251" t="s">
+        <v>532</v>
+      </c>
+      <c r="D251" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>253</v>
+      </c>
+      <c r="C252" t="s">
+        <v>547</v>
+      </c>
+      <c r="D252" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>254</v>
+      </c>
+      <c r="C253" t="s">
+        <v>532</v>
+      </c>
+      <c r="D253" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>255</v>
+      </c>
+      <c r="C254" t="s">
+        <v>554</v>
+      </c>
+      <c r="D254" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>256</v>
+      </c>
+      <c r="C255" t="s">
+        <v>532</v>
+      </c>
+      <c r="D255" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>257</v>
+      </c>
+      <c r="C256" t="s">
+        <v>550</v>
+      </c>
+      <c r="D256" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>258</v>
+      </c>
+      <c r="C257" t="s">
+        <v>532</v>
+      </c>
+      <c r="D257" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>259</v>
+      </c>
+      <c r="C258" t="s">
+        <v>545</v>
+      </c>
+      <c r="D258" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>260</v>
+      </c>
+      <c r="C259" t="s">
+        <v>532</v>
+      </c>
+      <c r="D259" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>261</v>
+      </c>
+      <c r="C260" t="s">
+        <v>555</v>
+      </c>
+      <c r="D260" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>262</v>
+      </c>
+      <c r="C261" t="s">
+        <v>532</v>
+      </c>
+      <c r="D261" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>263</v>
+      </c>
+      <c r="C262" t="s">
+        <v>555</v>
+      </c>
+      <c r="D262" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>264</v>
+      </c>
+      <c r="C263" t="s">
+        <v>532</v>
+      </c>
+      <c r="D263" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>265</v>
+      </c>
+      <c r="C264" t="s">
+        <v>550</v>
+      </c>
+      <c r="D264" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>266</v>
+      </c>
+      <c r="C265" t="s">
+        <v>532</v>
+      </c>
+      <c r="D265" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>267</v>
+      </c>
+      <c r="C266" t="s">
+        <v>550</v>
+      </c>
+      <c r="D266" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>268</v>
+      </c>
+      <c r="C267" t="s">
+        <v>532</v>
+      </c>
+      <c r="D267" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>269</v>
+      </c>
+      <c r="C268" t="s">
+        <v>545</v>
+      </c>
+      <c r="D268" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>270</v>
+      </c>
+      <c r="C269" t="s">
+        <v>532</v>
+      </c>
+      <c r="D269" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>271</v>
+      </c>
+      <c r="C270" t="s">
+        <v>550</v>
+      </c>
+      <c r="D270" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>272</v>
+      </c>
+      <c r="C271" t="s">
+        <v>532</v>
+      </c>
+      <c r="D271" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>273</v>
+      </c>
+      <c r="C272" t="s">
+        <v>553</v>
+      </c>
+      <c r="D272" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>274</v>
+      </c>
+      <c r="C273" t="s">
+        <v>532</v>
+      </c>
+      <c r="D273" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>275</v>
+      </c>
+      <c r="C274" t="s">
+        <v>558</v>
+      </c>
+      <c r="D274" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>276</v>
+      </c>
+      <c r="C275" t="s">
+        <v>532</v>
+      </c>
+      <c r="D275" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>277</v>
+      </c>
+      <c r="C276" t="s">
+        <v>552</v>
+      </c>
+      <c r="D276" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>278</v>
+      </c>
+      <c r="C277" t="s">
+        <v>532</v>
+      </c>
+      <c r="D277" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>279</v>
+      </c>
+      <c r="C278" t="s">
+        <v>547</v>
+      </c>
+      <c r="D278" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>280</v>
+      </c>
+      <c r="C279" t="s">
+        <v>532</v>
+      </c>
+      <c r="D279" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>281</v>
+      </c>
+      <c r="C280" t="s">
+        <v>552</v>
+      </c>
+      <c r="D280" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>282</v>
+      </c>
+      <c r="C281" t="s">
+        <v>532</v>
+      </c>
+      <c r="D281" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>283</v>
+      </c>
+      <c r="C282" t="s">
+        <v>549</v>
+      </c>
+      <c r="D282" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>284</v>
+      </c>
+      <c r="C283" t="s">
+        <v>532</v>
+      </c>
+      <c r="D283" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>285</v>
+      </c>
+      <c r="C284" t="s">
+        <v>550</v>
+      </c>
+      <c r="D284" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>286</v>
+      </c>
+      <c r="C285" t="s">
+        <v>532</v>
+      </c>
+      <c r="D285" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>287</v>
+      </c>
+      <c r="C286" t="s">
+        <v>549</v>
+      </c>
+      <c r="D286" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>288</v>
+      </c>
+      <c r="C287" t="s">
+        <v>532</v>
+      </c>
+      <c r="D287" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>289</v>
+      </c>
+      <c r="C288" t="s">
+        <v>555</v>
+      </c>
+      <c r="D288" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>290</v>
+      </c>
+      <c r="C289" t="s">
+        <v>532</v>
+      </c>
+      <c r="D289" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>291</v>
+      </c>
+      <c r="C290" t="s">
+        <v>549</v>
+      </c>
+      <c r="D290" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>292</v>
+      </c>
+      <c r="C291" t="s">
+        <v>532</v>
+      </c>
+      <c r="D291" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>293</v>
+      </c>
+      <c r="C292" t="s">
+        <v>545</v>
+      </c>
+      <c r="D292" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>294</v>
+      </c>
+      <c r="C293" t="s">
+        <v>532</v>
+      </c>
+      <c r="D293" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>295</v>
+      </c>
+      <c r="C294" t="s">
+        <v>540</v>
+      </c>
+      <c r="D294" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>296</v>
+      </c>
+      <c r="C295" t="s">
+        <v>532</v>
+      </c>
+      <c r="D295" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>297</v>
+      </c>
+      <c r="C296" t="s">
+        <v>540</v>
+      </c>
+      <c r="D296" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>298</v>
+      </c>
+      <c r="C297" t="s">
+        <v>532</v>
+      </c>
+      <c r="D297" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>299</v>
+      </c>
+      <c r="C298" t="s">
+        <v>555</v>
+      </c>
+      <c r="D298" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>300</v>
+      </c>
+      <c r="C299" t="s">
+        <v>532</v>
+      </c>
+      <c r="D299" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>301</v>
+      </c>
+      <c r="C300" t="s">
+        <v>559</v>
+      </c>
+      <c r="D300" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>302</v>
+      </c>
+      <c r="C301" t="s">
+        <v>532</v>
+      </c>
+      <c r="D301" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>303</v>
+      </c>
+      <c r="C302" t="s">
+        <v>540</v>
+      </c>
+      <c r="D302" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>304</v>
+      </c>
+      <c r="C303" t="s">
+        <v>532</v>
+      </c>
+      <c r="D303" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>305</v>
+      </c>
+      <c r="C304" t="s">
+        <v>540</v>
+      </c>
+      <c r="D304" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>306</v>
+      </c>
+      <c r="C305" t="s">
+        <v>532</v>
+      </c>
+      <c r="D305" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>307</v>
+      </c>
+      <c r="C306" t="s">
+        <v>559</v>
+      </c>
+      <c r="D306" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>308</v>
+      </c>
+      <c r="C307" t="s">
+        <v>532</v>
+      </c>
+      <c r="D307" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>309</v>
+      </c>
+      <c r="C308" t="s">
+        <v>549</v>
+      </c>
+      <c r="D308" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>310</v>
+      </c>
+      <c r="C309" t="s">
+        <v>532</v>
+      </c>
+      <c r="D309" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>311</v>
+      </c>
+      <c r="C310" t="s">
+        <v>540</v>
+      </c>
+      <c r="D310" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>312</v>
+      </c>
+      <c r="C311" t="s">
+        <v>532</v>
+      </c>
+      <c r="D311" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>313</v>
+      </c>
+      <c r="C312" t="s">
+        <v>559</v>
+      </c>
+      <c r="D312" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>314</v>
+      </c>
+      <c r="C313" t="s">
+        <v>532</v>
+      </c>
+      <c r="D313" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>315</v>
+      </c>
+      <c r="C314" t="s">
+        <v>554</v>
+      </c>
+      <c r="D314" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>316</v>
+      </c>
+      <c r="C315" t="s">
+        <v>532</v>
+      </c>
+      <c r="D315" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>317</v>
+      </c>
+      <c r="C316" t="s">
+        <v>558</v>
+      </c>
+      <c r="D316" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>318</v>
+      </c>
+      <c r="C317" t="s">
+        <v>532</v>
+      </c>
+      <c r="D317" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>319</v>
+      </c>
+      <c r="C318" t="s">
+        <v>559</v>
+      </c>
+      <c r="D318" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>320</v>
+      </c>
+      <c r="C319" t="s">
+        <v>532</v>
+      </c>
+      <c r="D319" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>321</v>
+      </c>
+      <c r="C320" t="s">
+        <v>540</v>
+      </c>
+      <c r="D320" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>322</v>
+      </c>
+      <c r="C321" t="s">
+        <v>532</v>
+      </c>
+      <c r="D321" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>323</v>
+      </c>
+      <c r="C322" t="s">
+        <v>549</v>
+      </c>
+      <c r="D322" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>324</v>
+      </c>
+      <c r="C323" t="s">
+        <v>532</v>
+      </c>
+      <c r="D323" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>325</v>
+      </c>
+      <c r="C324" t="s">
+        <v>548</v>
+      </c>
+      <c r="D324" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>326</v>
+      </c>
+      <c r="C325" t="s">
+        <v>532</v>
+      </c>
+      <c r="D325" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>327</v>
+      </c>
+      <c r="C326" t="s">
+        <v>540</v>
+      </c>
+      <c r="D326" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>328</v>
+      </c>
+      <c r="C327" t="s">
+        <v>532</v>
+      </c>
+      <c r="D327" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>329</v>
+      </c>
+      <c r="C328" t="s">
+        <v>540</v>
+      </c>
+      <c r="D328" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>330</v>
+      </c>
+      <c r="C329" t="s">
+        <v>532</v>
+      </c>
+      <c r="D329" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>331</v>
+      </c>
+      <c r="C330" t="s">
+        <v>549</v>
+      </c>
+      <c r="D330" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>332</v>
+      </c>
+      <c r="C331" t="s">
+        <v>532</v>
+      </c>
+      <c r="D331" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>333</v>
+      </c>
+      <c r="C332" t="s">
+        <v>559</v>
+      </c>
+      <c r="D332" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>334</v>
+      </c>
+      <c r="C333" t="s">
+        <v>532</v>
+      </c>
+      <c r="D333" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>335</v>
+      </c>
+      <c r="C334" t="s">
+        <v>552</v>
+      </c>
+      <c r="D334" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>336</v>
+      </c>
+      <c r="C335" t="s">
+        <v>532</v>
+      </c>
+      <c r="D335" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>337</v>
+      </c>
+      <c r="C336" t="s">
+        <v>545</v>
+      </c>
+      <c r="D336" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>338</v>
+      </c>
+      <c r="C337" t="s">
+        <v>532</v>
+      </c>
+      <c r="D337" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>339</v>
+      </c>
+      <c r="C338" t="s">
+        <v>549</v>
+      </c>
+      <c r="D338" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>340</v>
+      </c>
+      <c r="C339" t="s">
+        <v>532</v>
+      </c>
+      <c r="D339" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>341</v>
+      </c>
+      <c r="C340" t="s">
+        <v>545</v>
+      </c>
+      <c r="D340" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>342</v>
+      </c>
+      <c r="C341" t="s">
+        <v>532</v>
+      </c>
+      <c r="D341" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>343</v>
+      </c>
+      <c r="C342" t="s">
+        <v>549</v>
+      </c>
+      <c r="D342" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>344</v>
+      </c>
+      <c r="C343" t="s">
+        <v>532</v>
+      </c>
+      <c r="D343" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>345</v>
+      </c>
+      <c r="C344" t="s">
+        <v>558</v>
+      </c>
+      <c r="D344" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>346</v>
+      </c>
+      <c r="C345" t="s">
+        <v>532</v>
+      </c>
+      <c r="D345" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>347</v>
+      </c>
+      <c r="C346" t="s">
+        <v>559</v>
+      </c>
+      <c r="D346" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>348</v>
+      </c>
+      <c r="C347" t="s">
+        <v>532</v>
+      </c>
+      <c r="D347" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>349</v>
+      </c>
+      <c r="C348" t="s">
+        <v>548</v>
+      </c>
+      <c r="D348" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>350</v>
+      </c>
+      <c r="C349" t="s">
+        <v>532</v>
+      </c>
+      <c r="D349" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>351</v>
+      </c>
+      <c r="C350" t="s">
+        <v>552</v>
+      </c>
+      <c r="D350" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>352</v>
+      </c>
+      <c r="C351" t="s">
+        <v>532</v>
+      </c>
+      <c r="D351" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>353</v>
+      </c>
+      <c r="C352" t="s">
+        <v>545</v>
+      </c>
+      <c r="D352" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>354</v>
+      </c>
+      <c r="C353" t="s">
+        <v>532</v>
+      </c>
+      <c r="D353" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>355</v>
+      </c>
+      <c r="C354" t="s">
+        <v>545</v>
+      </c>
+      <c r="D354" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>356</v>
+      </c>
+      <c r="C355" t="s">
+        <v>532</v>
+      </c>
+      <c r="D355" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>357</v>
+      </c>
+      <c r="C356" t="s">
+        <v>559</v>
+      </c>
+      <c r="D356" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>358</v>
+      </c>
+      <c r="C357" t="s">
+        <v>532</v>
+      </c>
+      <c r="D357" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>359</v>
+      </c>
+      <c r="C358" t="s">
+        <v>555</v>
+      </c>
+      <c r="D358" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>360</v>
+      </c>
+      <c r="C359" t="s">
+        <v>532</v>
+      </c>
+      <c r="D359" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>361</v>
+      </c>
+      <c r="C360" t="s">
+        <v>554</v>
+      </c>
+      <c r="D360" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>362</v>
+      </c>
+      <c r="C361" t="s">
+        <v>532</v>
+      </c>
+      <c r="D361" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>363</v>
+      </c>
+      <c r="C362" t="s">
+        <v>549</v>
+      </c>
+      <c r="D362" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>364</v>
+      </c>
+      <c r="C363" t="s">
+        <v>532</v>
+      </c>
+      <c r="D363" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>365</v>
+      </c>
+      <c r="C364" t="s">
+        <v>540</v>
+      </c>
+      <c r="D364" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>366</v>
+      </c>
+      <c r="C365" t="s">
+        <v>532</v>
+      </c>
+      <c r="D365" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>367</v>
+      </c>
+      <c r="C366" t="s">
+        <v>545</v>
+      </c>
+      <c r="D366" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>368</v>
+      </c>
+      <c r="C367" t="s">
+        <v>532</v>
+      </c>
+      <c r="D367" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>369</v>
+      </c>
+      <c r="C368" t="s">
+        <v>548</v>
+      </c>
+      <c r="D368" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>370</v>
+      </c>
+      <c r="C369" t="s">
+        <v>532</v>
+      </c>
+      <c r="D369" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>371</v>
+      </c>
+      <c r="C370" t="s">
+        <v>559</v>
+      </c>
+      <c r="D370" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>372</v>
+      </c>
+      <c r="C371" t="s">
+        <v>532</v>
+      </c>
+      <c r="D371" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>373</v>
+      </c>
+      <c r="C372" t="s">
+        <v>549</v>
+      </c>
+      <c r="D372" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>374</v>
+      </c>
+      <c r="C373" t="s">
+        <v>532</v>
+      </c>
+      <c r="D373" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>375</v>
+      </c>
+      <c r="C374" t="s">
+        <v>540</v>
+      </c>
+      <c r="D374" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>376</v>
+      </c>
+      <c r="C375" t="s">
+        <v>532</v>
+      </c>
+      <c r="D375" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>377</v>
+      </c>
+      <c r="C376" t="s">
+        <v>545</v>
+      </c>
+      <c r="D376" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>378</v>
+      </c>
+      <c r="C377" t="s">
+        <v>532</v>
+      </c>
+      <c r="D377" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>379</v>
+      </c>
+      <c r="C378" t="s">
+        <v>540</v>
+      </c>
+      <c r="D378" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>380</v>
+      </c>
+      <c r="C379" t="s">
+        <v>532</v>
+      </c>
+      <c r="D379" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>381</v>
+      </c>
+      <c r="C380" t="s">
+        <v>549</v>
+      </c>
+      <c r="D380" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>382</v>
+      </c>
+      <c r="C381" t="s">
+        <v>532</v>
+      </c>
+      <c r="D381" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>383</v>
+      </c>
+      <c r="C382" t="s">
+        <v>559</v>
+      </c>
+      <c r="D382" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>384</v>
+      </c>
+      <c r="C383" t="s">
+        <v>532</v>
+      </c>
+      <c r="D383" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>385</v>
+      </c>
+      <c r="C384" t="s">
+        <v>549</v>
+      </c>
+      <c r="D384" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>386</v>
+      </c>
+      <c r="C385" t="s">
+        <v>532</v>
+      </c>
+      <c r="D385" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>387</v>
+      </c>
+      <c r="C386" t="s">
+        <v>558</v>
+      </c>
+      <c r="D386" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>388</v>
+      </c>
+      <c r="C387" t="s">
+        <v>532</v>
+      </c>
+      <c r="D387" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>389</v>
+      </c>
+      <c r="C388" t="s">
+        <v>558</v>
+      </c>
+      <c r="D388" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>390</v>
+      </c>
+      <c r="C389" t="s">
+        <v>532</v>
+      </c>
+      <c r="D389" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>391</v>
+      </c>
+      <c r="C390" t="s">
+        <v>555</v>
+      </c>
+      <c r="D390" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>392</v>
+      </c>
+      <c r="C391" t="s">
+        <v>532</v>
+      </c>
+      <c r="D391" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>393</v>
+      </c>
+      <c r="C392" t="s">
+        <v>559</v>
+      </c>
+      <c r="D392" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>394</v>
+      </c>
+      <c r="C393" t="s">
+        <v>532</v>
+      </c>
+      <c r="D393" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>395</v>
+      </c>
+      <c r="C394" t="s">
+        <v>548</v>
+      </c>
+      <c r="D394" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>396</v>
+      </c>
+      <c r="C395" t="s">
+        <v>532</v>
+      </c>
+      <c r="D395" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>397</v>
+      </c>
+      <c r="C396" t="s">
+        <v>558</v>
+      </c>
+      <c r="D396" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>398</v>
+      </c>
+      <c r="C397" t="s">
+        <v>532</v>
+      </c>
+      <c r="D397" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>399</v>
+      </c>
+      <c r="C398" t="s">
+        <v>559</v>
+      </c>
+      <c r="D398" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>400</v>
+      </c>
+      <c r="C399" t="s">
+        <v>532</v>
+      </c>
+      <c r="D399" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>401</v>
+      </c>
+      <c r="C400" t="s">
+        <v>548</v>
+      </c>
+      <c r="D400" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>402</v>
+      </c>
+      <c r="C401" t="s">
+        <v>532</v>
+      </c>
+      <c r="D401" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>403</v>
+      </c>
+      <c r="C402" t="s">
+        <v>559</v>
+      </c>
+      <c r="D402" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>404</v>
+      </c>
+      <c r="C403" t="s">
+        <v>532</v>
+      </c>
+      <c r="D403" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>405</v>
+      </c>
+      <c r="C404" t="s">
+        <v>545</v>
+      </c>
+      <c r="D404" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>406</v>
+      </c>
+      <c r="C405" t="s">
+        <v>532</v>
+      </c>
+      <c r="D405" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>407</v>
+      </c>
+      <c r="C406" t="s">
+        <v>558</v>
+      </c>
+      <c r="D406" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>408</v>
+      </c>
+      <c r="C407" t="s">
+        <v>532</v>
+      </c>
+      <c r="D407" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>409</v>
+      </c>
+      <c r="C408" t="s">
+        <v>558</v>
+      </c>
+      <c r="D408" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>410</v>
+      </c>
+      <c r="C409" t="s">
+        <v>532</v>
+      </c>
+      <c r="D409" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>411</v>
+      </c>
+      <c r="C410" t="s">
+        <v>558</v>
+      </c>
+      <c r="D410" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>412</v>
+      </c>
+      <c r="C411" t="s">
+        <v>532</v>
+      </c>
+      <c r="D411" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>413</v>
+      </c>
+      <c r="C412" t="s">
+        <v>558</v>
+      </c>
+      <c r="D412" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>414</v>
+      </c>
+      <c r="C413" t="s">
+        <v>532</v>
+      </c>
+      <c r="D413" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>415</v>
+      </c>
+      <c r="C414" t="s">
+        <v>554</v>
+      </c>
+      <c r="D414" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>416</v>
+      </c>
+      <c r="C415" t="s">
+        <v>532</v>
+      </c>
+      <c r="D415" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s">
+        <v>417</v>
+      </c>
+      <c r="C416" t="s">
+        <v>558</v>
+      </c>
+      <c r="D416" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
+        <v>418</v>
+      </c>
+      <c r="C417" t="s">
+        <v>532</v>
+      </c>
+      <c r="D417" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>419</v>
+      </c>
+      <c r="C418" t="s">
+        <v>558</v>
+      </c>
+      <c r="D418" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>420</v>
+      </c>
+      <c r="C419" t="s">
+        <v>532</v>
+      </c>
+      <c r="D419" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>421</v>
+      </c>
+      <c r="C420" t="s">
+        <v>555</v>
+      </c>
+      <c r="D420" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>422</v>
+      </c>
+      <c r="C421" t="s">
+        <v>532</v>
+      </c>
+      <c r="D421" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>423</v>
+      </c>
+      <c r="C422" t="s">
+        <v>554</v>
+      </c>
+      <c r="D422" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>424</v>
+      </c>
+      <c r="C423" t="s">
+        <v>532</v>
+      </c>
+      <c r="D423" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>425</v>
+      </c>
+      <c r="C424" t="s">
+        <v>545</v>
+      </c>
+      <c r="D424" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>426</v>
+      </c>
+      <c r="C425" t="s">
+        <v>532</v>
+      </c>
+      <c r="D425" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>427</v>
+      </c>
+      <c r="C426" t="s">
+        <v>558</v>
+      </c>
+      <c r="D426" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>428</v>
+      </c>
+      <c r="C427" t="s">
+        <v>532</v>
+      </c>
+      <c r="D427" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>429</v>
+      </c>
+      <c r="C428" t="s">
+        <v>559</v>
+      </c>
+      <c r="D428" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>430</v>
+      </c>
+      <c r="C429" t="s">
+        <v>532</v>
+      </c>
+      <c r="D429" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>431</v>
+      </c>
+      <c r="C430" t="s">
+        <v>558</v>
+      </c>
+      <c r="D430" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>432</v>
+      </c>
+      <c r="C431" t="s">
+        <v>532</v>
+      </c>
+      <c r="D431" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>433</v>
+      </c>
+      <c r="C432" t="s">
+        <v>558</v>
+      </c>
+      <c r="D432" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>434</v>
+      </c>
+      <c r="C433" t="s">
+        <v>532</v>
+      </c>
+      <c r="D433" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>435</v>
+      </c>
+      <c r="C434" t="s">
+        <v>545</v>
+      </c>
+      <c r="D434" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>436</v>
+      </c>
+      <c r="C435" t="s">
+        <v>532</v>
+      </c>
+      <c r="D435" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>437</v>
+      </c>
+      <c r="C436" t="s">
+        <v>552</v>
+      </c>
+      <c r="D436" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>438</v>
+      </c>
+      <c r="C437" t="s">
+        <v>532</v>
+      </c>
+      <c r="D437" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>439</v>
+      </c>
+      <c r="C438" t="s">
+        <v>558</v>
+      </c>
+      <c r="D438" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>440</v>
+      </c>
+      <c r="C439" t="s">
+        <v>532</v>
+      </c>
+      <c r="D439" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>441</v>
+      </c>
+      <c r="C440" t="s">
+        <v>552</v>
+      </c>
+      <c r="D440" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>442</v>
+      </c>
+      <c r="C441" t="s">
+        <v>532</v>
+      </c>
+      <c r="D441" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>443</v>
+      </c>
+      <c r="C442" t="s">
+        <v>558</v>
+      </c>
+      <c r="D442" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>444</v>
+      </c>
+      <c r="C443" t="s">
+        <v>532</v>
+      </c>
+      <c r="D443" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>445</v>
+      </c>
+      <c r="C444" t="s">
+        <v>545</v>
+      </c>
+      <c r="D444" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>446</v>
+      </c>
+      <c r="C445" t="s">
+        <v>532</v>
+      </c>
+      <c r="D445" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>447</v>
+      </c>
+      <c r="C446" t="s">
+        <v>554</v>
+      </c>
+      <c r="D446" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>448</v>
+      </c>
+      <c r="C447" t="s">
+        <v>532</v>
+      </c>
+      <c r="D447" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>449</v>
+      </c>
+      <c r="C448" t="s">
+        <v>548</v>
+      </c>
+      <c r="D448" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>450</v>
+      </c>
+      <c r="C449" t="s">
+        <v>532</v>
+      </c>
+      <c r="D449" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>451</v>
+      </c>
+      <c r="C450" t="s">
+        <v>545</v>
+      </c>
+      <c r="D450" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>452</v>
+      </c>
+      <c r="C451" t="s">
+        <v>532</v>
+      </c>
+      <c r="D451" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>453</v>
+      </c>
+      <c r="C452" t="s">
+        <v>545</v>
+      </c>
+      <c r="D452" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>454</v>
+      </c>
+      <c r="C453" t="s">
+        <v>532</v>
+      </c>
+      <c r="D453" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>455</v>
+      </c>
+      <c r="C454" t="s">
+        <v>552</v>
+      </c>
+      <c r="D454" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>456</v>
+      </c>
+      <c r="C455" t="s">
+        <v>532</v>
+      </c>
+      <c r="D455" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>457</v>
+      </c>
+      <c r="C456" t="s">
+        <v>548</v>
+      </c>
+      <c r="D456" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>458</v>
+      </c>
+      <c r="C457" t="s">
+        <v>532</v>
+      </c>
+      <c r="D457" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>459</v>
+      </c>
+      <c r="C458" t="s">
+        <v>548</v>
+      </c>
+      <c r="D458" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>460</v>
+      </c>
+      <c r="C459" t="s">
+        <v>532</v>
+      </c>
+      <c r="D459" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>461</v>
+      </c>
+      <c r="C460" t="s">
+        <v>552</v>
+      </c>
+      <c r="D460" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>462</v>
+      </c>
+      <c r="C461" t="s">
+        <v>532</v>
+      </c>
+      <c r="D461" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>463</v>
+      </c>
+      <c r="C462" t="s">
+        <v>555</v>
+      </c>
+      <c r="D462" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>464</v>
+      </c>
+      <c r="C463" t="s">
+        <v>532</v>
+      </c>
+      <c r="D463" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>465</v>
+      </c>
+      <c r="C464" t="s">
+        <v>555</v>
+      </c>
+      <c r="D464" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>466</v>
+      </c>
+      <c r="C465" t="s">
+        <v>532</v>
+      </c>
+      <c r="D465" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>467</v>
+      </c>
+      <c r="C466" t="s">
+        <v>559</v>
+      </c>
+      <c r="D466" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>468</v>
+      </c>
+      <c r="C467" t="s">
+        <v>532</v>
+      </c>
+      <c r="D467" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>469</v>
+      </c>
+      <c r="C468" t="s">
+        <v>559</v>
+      </c>
+      <c r="D468" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>470</v>
+      </c>
+      <c r="C469" t="s">
+        <v>532</v>
+      </c>
+      <c r="D469" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>471</v>
+      </c>
+      <c r="C470" t="s">
+        <v>558</v>
+      </c>
+      <c r="D470" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>472</v>
+      </c>
+      <c r="C471" t="s">
+        <v>532</v>
+      </c>
+      <c r="D471" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>473</v>
+      </c>
+      <c r="C472" t="s">
+        <v>545</v>
+      </c>
+      <c r="D472" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>474</v>
+      </c>
+      <c r="C473" t="s">
+        <v>532</v>
+      </c>
+      <c r="D473" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>475</v>
+      </c>
+      <c r="C474" t="s">
+        <v>555</v>
+      </c>
+      <c r="D474" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>476</v>
+      </c>
+      <c r="C475" t="s">
+        <v>532</v>
+      </c>
+      <c r="D475" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>477</v>
+      </c>
+      <c r="C476" t="s">
+        <v>545</v>
+      </c>
+      <c r="D476" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>478</v>
+      </c>
+      <c r="C477" t="s">
+        <v>532</v>
+      </c>
+      <c r="D477" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>479</v>
+      </c>
+      <c r="C478" t="s">
+        <v>552</v>
+      </c>
+      <c r="D478" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>480</v>
+      </c>
+      <c r="C479" t="s">
+        <v>532</v>
+      </c>
+      <c r="D479" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>481</v>
+      </c>
+      <c r="C480" t="s">
+        <v>555</v>
+      </c>
+      <c r="D480" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>482</v>
+      </c>
+      <c r="C481" t="s">
+        <v>532</v>
+      </c>
+      <c r="D481" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>483</v>
+      </c>
+      <c r="C482" t="s">
+        <v>548</v>
+      </c>
+      <c r="D482" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>484</v>
+      </c>
+      <c r="C483" t="s">
+        <v>532</v>
+      </c>
+      <c r="D483" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>485</v>
+      </c>
+      <c r="C484" t="s">
+        <v>552</v>
+      </c>
+      <c r="D484" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>486</v>
+      </c>
+      <c r="C485" t="s">
+        <v>532</v>
+      </c>
+      <c r="D485" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>487</v>
+      </c>
+      <c r="C486" t="s">
+        <v>552</v>
+      </c>
+      <c r="D486" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>488</v>
+      </c>
+      <c r="C487" t="s">
+        <v>532</v>
+      </c>
+      <c r="D487" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>489</v>
+      </c>
+      <c r="C488" t="s">
+        <v>545</v>
+      </c>
+      <c r="D488" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>490</v>
+      </c>
+      <c r="C489" t="s">
+        <v>532</v>
+      </c>
+      <c r="D489" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>491</v>
+      </c>
+      <c r="C490" t="s">
+        <v>555</v>
+      </c>
+      <c r="D490" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>492</v>
+      </c>
+      <c r="C491" t="s">
+        <v>532</v>
+      </c>
+      <c r="D491" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>493</v>
+      </c>
+      <c r="C492" t="s">
+        <v>545</v>
+      </c>
+      <c r="D492" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>494</v>
+      </c>
+      <c r="C493" t="s">
+        <v>532</v>
+      </c>
+      <c r="D493" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>495</v>
+      </c>
+      <c r="C494" t="s">
+        <v>559</v>
+      </c>
+      <c r="D494" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>496</v>
+      </c>
+      <c r="C495" t="s">
+        <v>532</v>
+      </c>
+      <c r="D495" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>497</v>
+      </c>
+      <c r="C496" t="s">
+        <v>555</v>
+      </c>
+      <c r="D496" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>498</v>
+      </c>
+      <c r="C497" t="s">
+        <v>532</v>
+      </c>
+      <c r="D497" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>499</v>
+      </c>
+      <c r="C498" t="s">
+        <v>555</v>
+      </c>
+      <c r="D498" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>500</v>
+      </c>
+      <c r="C499" t="s">
+        <v>532</v>
+      </c>
+      <c r="D499" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>501</v>
+      </c>
+      <c r="C500" t="s">
+        <v>548</v>
+      </c>
+      <c r="D500" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>502</v>
+      </c>
+      <c r="C501" t="s">
+        <v>532</v>
+      </c>
+      <c r="D501" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>503</v>
+      </c>
+      <c r="C502" t="s">
+        <v>555</v>
+      </c>
+      <c r="D502" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>504</v>
+      </c>
+      <c r="C503" t="s">
+        <v>532</v>
+      </c>
+      <c r="D503" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>505</v>
+      </c>
+      <c r="C504" t="s">
+        <v>552</v>
+      </c>
+      <c r="D504" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>506</v>
+      </c>
+      <c r="C505" t="s">
+        <v>532</v>
+      </c>
+      <c r="D505" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>507</v>
+      </c>
+      <c r="C506" t="s">
+        <v>552</v>
+      </c>
+      <c r="D506" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>508</v>
+      </c>
+      <c r="C507" t="s">
+        <v>532</v>
+      </c>
+      <c r="D507" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508" t="s">
+        <v>509</v>
+      </c>
+      <c r="C508" t="s">
+        <v>558</v>
+      </c>
+      <c r="D508" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509" t="s">
+        <v>510</v>
+      </c>
+      <c r="C509" t="s">
+        <v>532</v>
+      </c>
+      <c r="D509" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510" t="s">
+        <v>511</v>
+      </c>
+      <c r="C510" t="s">
+        <v>555</v>
+      </c>
+      <c r="D510" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511" t="s">
+        <v>512</v>
+      </c>
+      <c r="C511" t="s">
+        <v>532</v>
+      </c>
+      <c r="D511" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>513</v>
+      </c>
+      <c r="C512" t="s">
+        <v>559</v>
+      </c>
+      <c r="D512" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513" t="s">
+        <v>514</v>
+      </c>
+      <c r="C513" t="s">
+        <v>532</v>
+      </c>
+      <c r="D513" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514" t="s">
+        <v>515</v>
+      </c>
+      <c r="C514" t="s">
+        <v>559</v>
+      </c>
+      <c r="D514" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515" t="s">
+        <v>516</v>
+      </c>
+      <c r="C515" t="s">
+        <v>532</v>
+      </c>
+      <c r="D515" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516" t="s">
+        <v>517</v>
+      </c>
+      <c r="C516" t="s">
+        <v>559</v>
+      </c>
+      <c r="D516" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517" t="s">
+        <v>518</v>
+      </c>
+      <c r="C517" t="s">
+        <v>532</v>
+      </c>
+      <c r="D517" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518" t="s">
+        <v>519</v>
+      </c>
+      <c r="C518" t="s">
+        <v>548</v>
+      </c>
+      <c r="D518" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519" t="s">
+        <v>520</v>
+      </c>
+      <c r="C519" t="s">
+        <v>532</v>
+      </c>
+      <c r="D519" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520" t="s">
+        <v>521</v>
+      </c>
+      <c r="C520" t="s">
+        <v>555</v>
+      </c>
+      <c r="D520" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521" t="s">
+        <v>522</v>
+      </c>
+      <c r="C521" t="s">
+        <v>532</v>
+      </c>
+      <c r="D521" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522" t="s">
+        <v>523</v>
+      </c>
+      <c r="C522" t="s">
+        <v>545</v>
+      </c>
+      <c r="D522" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523" t="s">
+        <v>524</v>
+      </c>
+      <c r="C523" t="s">
+        <v>532</v>
+      </c>
+      <c r="D523" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524" t="s">
+        <v>525</v>
+      </c>
+      <c r="C524" t="s">
+        <v>559</v>
+      </c>
+      <c r="D524" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525" t="s">
+        <v>526</v>
+      </c>
+      <c r="C525" t="s">
+        <v>532</v>
+      </c>
+      <c r="D525" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526" t="s">
+        <v>527</v>
+      </c>
+      <c r="C526" t="s">
+        <v>548</v>
+      </c>
+      <c r="D526" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527" t="s">
+        <v>528</v>
+      </c>
+      <c r="C527" t="s">
+        <v>532</v>
+      </c>
+      <c r="D527" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528" t="s">
+        <v>529</v>
+      </c>
+      <c r="C528" t="s">
+        <v>554</v>
+      </c>
+      <c r="D528" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529" t="s">
+        <v>530</v>
+      </c>
+      <c r="C529" t="s">
+        <v>532</v>
+      </c>
+      <c r="D529" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
